--- a/Game Inventory.xlsx
+++ b/Game Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Dell\Documents\Programming\Games Club\games-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D5558D-C2DD-40CA-9857-6DCD9740C49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30FDA48-39BD-4ED4-837E-B620E4C107AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Board Games" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Board Games'!$A$1:$O$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Board Games'!$A$1:$O$376</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Video Games'!$A$1:$L$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="650">
   <si>
     <t>Games</t>
   </si>
@@ -951,9 +951,6 @@
     <t>Betrayal: Widow’s Walk</t>
   </si>
   <si>
-    <t xml:space="preserve">Blockbuster </t>
-  </si>
-  <si>
     <t>Blokus</t>
   </si>
   <si>
@@ -1387,9 +1384,6 @@
   </si>
   <si>
     <t>Kingdomino Duel</t>
-  </si>
-  <si>
-    <t>x-</t>
   </si>
   <si>
     <t>Kulami</t>
@@ -2790,7 +2784,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="My Dell" refreshedDate="43871.880254629628" refreshedVersion="6" recordCount="973" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K973" sheet="Board Games"/>
+    <worksheetSource ref="A1:K972" sheet="Board Games"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Title" numFmtId="0">
@@ -2862,7 +2856,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="My Dell" refreshedDate="43871.880254976852" refreshedVersion="6" recordCount="973" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J973" sheet="Board Games"/>
+    <worksheetSource ref="A1:J972" sheet="Board Games"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Title" numFmtId="0">
@@ -71511,16 +71505,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O973"/>
+  <dimension ref="A1:O972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -71577,7 +71571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.5" hidden="1">
+    <row r="2" spans="1:12" ht="12.5">
       <c r="A2" s="19" t="s">
         <v>192</v>
       </c>
@@ -71590,9 +71584,11 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.5" hidden="1">
+      <c r="J2" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.5">
       <c r="A3" s="46" t="s">
         <v>193</v>
       </c>
@@ -71657,7 +71653,7 @@
     </row>
     <row r="6" spans="1:12" ht="12.5">
       <c r="A6" s="49" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>200</v>
@@ -71676,7 +71672,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.5" hidden="1">
+    <row r="7" spans="1:12" ht="12.5">
       <c r="A7" s="46" t="s">
         <v>201</v>
       </c>
@@ -71701,7 +71697,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.5" hidden="1">
+    <row r="8" spans="1:12" ht="12.5">
       <c r="A8" s="46" t="s">
         <v>204</v>
       </c>
@@ -71797,7 +71793,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.5" hidden="1">
+    <row r="13" spans="1:12" ht="12.5">
       <c r="A13" s="46" t="s">
         <v>212</v>
       </c>
@@ -71822,7 +71818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.5" hidden="1">
+    <row r="14" spans="1:12" ht="12.5">
       <c r="A14" s="46" t="s">
         <v>215</v>
       </c>
@@ -71846,7 +71842,7 @@
       </c>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:12" ht="12.5" hidden="1">
+    <row r="15" spans="1:12" ht="12.5">
       <c r="A15" s="54" t="s">
         <v>217</v>
       </c>
@@ -71870,7 +71866,7 @@
       </c>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:12" ht="12.5" hidden="1">
+    <row r="16" spans="1:12" ht="12.5">
       <c r="A16" s="54" t="s">
         <v>219</v>
       </c>
@@ -71892,7 +71888,7 @@
       </c>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="12.5" hidden="1">
+    <row r="17" spans="1:15" ht="12.5">
       <c r="A17" s="54" t="s">
         <v>220</v>
       </c>
@@ -71914,7 +71910,7 @@
       </c>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:15" ht="12.5" hidden="1">
+    <row r="18" spans="1:15" ht="12.5">
       <c r="A18" s="54" t="s">
         <v>221</v>
       </c>
@@ -71955,7 +71951,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.5" hidden="1">
+    <row r="20" spans="1:15" ht="12.5">
       <c r="A20" s="46" t="s">
         <v>223</v>
       </c>
@@ -71973,7 +71969,7 @@
       </c>
       <c r="K20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="12.5" hidden="1">
+    <row r="21" spans="1:15" ht="12.5">
       <c r="A21" s="46" t="s">
         <v>224</v>
       </c>
@@ -71999,7 +71995,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.5" hidden="1">
+    <row r="22" spans="1:15" ht="12.5">
       <c r="A22" s="46" t="s">
         <v>242</v>
       </c>
@@ -72023,7 +72019,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.5" hidden="1">
+    <row r="23" spans="1:15" ht="12.5">
       <c r="A23" s="46" t="s">
         <v>244</v>
       </c>
@@ -72049,7 +72045,7 @@
       </c>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:15" ht="12.5" hidden="1">
+    <row r="24" spans="1:15" ht="12.5">
       <c r="A24" s="46" t="s">
         <v>246</v>
       </c>
@@ -72076,10 +72072,10 @@
         <v>184</v>
       </c>
       <c r="N24" s="102" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="12.5" hidden="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="12.5">
       <c r="A25" s="46" t="s">
         <v>249</v>
       </c>
@@ -72099,7 +72095,7 @@
       </c>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:15" ht="12.5" hidden="1">
+    <row r="26" spans="1:15" ht="12.5">
       <c r="A26" s="46" t="s">
         <v>250</v>
       </c>
@@ -72122,11 +72118,11 @@
       <c r="K26" s="36"/>
       <c r="M26" s="89"/>
       <c r="N26" s="90" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O26" s="91"/>
     </row>
-    <row r="27" spans="1:15" ht="12.5" hidden="1">
+    <row r="27" spans="1:15" ht="12.5">
       <c r="A27" s="46" t="s">
         <v>252</v>
       </c>
@@ -72208,7 +72204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.5" hidden="1">
+    <row r="30" spans="1:15" ht="12.5">
       <c r="A30" s="46" t="s">
         <v>256</v>
       </c>
@@ -72243,7 +72239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12.5" hidden="1">
+    <row r="31" spans="1:15" ht="12.5">
       <c r="A31" s="57" t="s">
         <v>228</v>
       </c>
@@ -72276,7 +72272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.5" hidden="1">
+    <row r="32" spans="1:15" ht="12.5">
       <c r="A32" s="46" t="s">
         <v>259</v>
       </c>
@@ -72305,7 +72301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.5" hidden="1">
+    <row r="33" spans="1:15" ht="12.5">
       <c r="A33" s="46" t="s">
         <v>261</v>
       </c>
@@ -72335,7 +72331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12.5" hidden="1">
+    <row r="34" spans="1:15" ht="12.5">
       <c r="A34" s="105" t="s">
         <v>263</v>
       </c>
@@ -72370,7 +72366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12.5" hidden="1">
+    <row r="35" spans="1:15" ht="12.5">
       <c r="A35" s="46" t="s">
         <v>265</v>
       </c>
@@ -72402,9 +72398,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12.5" hidden="1">
-      <c r="A36" s="46" t="s">
-        <v>266</v>
+    <row r="36" spans="1:15" ht="12.5">
+      <c r="A36" s="85" t="s">
+        <v>265</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
@@ -72429,9 +72425,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12.5" hidden="1">
+    <row r="37" spans="1:15" ht="12.5">
       <c r="A37" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="48" t="s">
         <v>194</v>
@@ -72462,9 +72458,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12.5" hidden="1">
+    <row r="38" spans="1:15" ht="12.5">
       <c r="A38" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
@@ -72493,10 +72489,10 @@
     </row>
     <row r="39" spans="1:15" ht="12.5">
       <c r="A39" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>270</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>271</v>
       </c>
       <c r="C39" s="19">
         <v>1</v>
@@ -72519,9 +72515,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.5" hidden="1">
+    <row r="40" spans="1:15" ht="12.5">
       <c r="A40" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40" s="32">
         <v>1</v>
@@ -72537,10 +72533,10 @@
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M40" s="95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N40" s="96">
         <v>10</v>
@@ -72549,9 +72545,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="12.5" hidden="1">
+    <row r="41" spans="1:15" ht="12.5">
       <c r="A41" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="19">
@@ -72580,9 +72576,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="12.5" hidden="1">
+    <row r="42" spans="1:15" ht="12.5">
       <c r="A42" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>194</v>
@@ -72604,7 +72600,7 @@
       </c>
       <c r="K42" s="36"/>
       <c r="M42" s="95" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N42" s="96"/>
       <c r="O42" s="97">
@@ -72613,7 +72609,7 @@
     </row>
     <row r="43" spans="1:15" ht="12.5">
       <c r="A43" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>194</v>
@@ -72628,7 +72624,7 @@
       <c r="I43" s="31"/>
       <c r="J43" s="36"/>
       <c r="M43" s="98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N43" s="99">
         <v>267</v>
@@ -72637,9 +72633,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12.5" hidden="1">
+    <row r="44" spans="1:15" ht="12.5">
       <c r="A44" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E44" s="32">
         <v>1</v>
@@ -72658,10 +72654,10 @@
     </row>
     <row r="45" spans="1:15" ht="12.5">
       <c r="A45" s="49" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>197</v>
@@ -72675,7 +72671,7 @@
     </row>
     <row r="46" spans="1:15" ht="12.5">
       <c r="A46" s="106" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>88</v>
@@ -72690,12 +72686,12 @@
       <c r="I46" s="31"/>
       <c r="J46" s="36"/>
       <c r="L46" s="55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="12.5">
+      <c r="A47" s="59" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="12.5" hidden="1">
-      <c r="A47" s="59" t="s">
-        <v>281</v>
       </c>
       <c r="E47" s="32">
         <v>1</v>
@@ -72711,9 +72707,9 @@
       </c>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="1:15" ht="12.5" hidden="1">
+    <row r="48" spans="1:15" ht="12.5">
       <c r="A48" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E48" s="32">
         <v>1</v>
@@ -72729,7 +72725,7 @@
       </c>
       <c r="K48" s="36"/>
     </row>
-    <row r="49" spans="1:12" ht="12.5" hidden="1">
+    <row r="49" spans="1:12" ht="12.5">
       <c r="A49" s="46" t="s">
         <v>240</v>
       </c>
@@ -72753,7 +72749,7 @@
     </row>
     <row r="50" spans="1:12" ht="12.5">
       <c r="A50" s="105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" s="48" t="s">
         <v>194</v>
@@ -72772,7 +72768,7 @@
     </row>
     <row r="51" spans="1:12" ht="12.5">
       <c r="A51" s="105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51" s="48" t="s">
         <v>194</v>
@@ -72789,9 +72785,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="12.5" hidden="1">
+    <row r="52" spans="1:12" ht="12.5">
       <c r="A52" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="32">
         <v>1</v>
@@ -72807,12 +72803,12 @@
       </c>
       <c r="K52" s="36"/>
       <c r="L52" s="50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.5">
+      <c r="A53" s="60" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="12.5" hidden="1">
-      <c r="A53" s="60" t="s">
-        <v>287</v>
       </c>
       <c r="C53" s="19">
         <v>3</v>
@@ -72833,9 +72829,9 @@
       </c>
       <c r="K53" s="36"/>
     </row>
-    <row r="54" spans="1:12" ht="12.5" hidden="1">
+    <row r="54" spans="1:12" ht="12.5">
       <c r="A54" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54" s="32">
         <v>1</v>
@@ -72849,9 +72845,9 @@
       </c>
       <c r="K54" s="36"/>
     </row>
-    <row r="55" spans="1:12" ht="12.5" hidden="1">
+    <row r="55" spans="1:12" ht="12.5">
       <c r="A55" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E55" s="32">
         <v>1</v>
@@ -72866,7 +72862,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="12.5" hidden="1">
+    <row r="56" spans="1:12" ht="12.5">
       <c r="A56" s="46" t="s">
         <v>232</v>
       </c>
@@ -72886,7 +72882,7 @@
     </row>
     <row r="57" spans="1:12" ht="12.5">
       <c r="A57" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B57" s="48" t="s">
         <v>194</v>
@@ -72901,9 +72897,9 @@
       <c r="I57" s="31"/>
       <c r="J57" s="36"/>
     </row>
-    <row r="58" spans="1:12" ht="12.5" hidden="1">
+    <row r="58" spans="1:12" ht="12.5">
       <c r="A58" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B58" s="62"/>
       <c r="C58" s="19">
@@ -72923,9 +72919,9 @@
       </c>
       <c r="K58" s="36"/>
     </row>
-    <row r="59" spans="1:12" ht="12.5" hidden="1">
+    <row r="59" spans="1:12" ht="12.5">
       <c r="A59" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="19">
@@ -72946,9 +72942,9 @@
       </c>
       <c r="K59" s="36"/>
     </row>
-    <row r="60" spans="1:12" ht="12.5" hidden="1">
+    <row r="60" spans="1:12" ht="12.5">
       <c r="A60" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E60" s="32">
         <v>1</v>
@@ -72964,12 +72960,12 @@
       </c>
       <c r="K60" s="36"/>
       <c r="L60" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="12.5">
       <c r="A61" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>88</v>
@@ -72984,9 +72980,9 @@
       <c r="I61" s="31"/>
       <c r="J61" s="36"/>
     </row>
-    <row r="62" spans="1:12" ht="12.5" hidden="1">
+    <row r="62" spans="1:12" ht="12.5">
       <c r="A62" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E62" s="32">
         <v>1</v>
@@ -73002,9 +72998,9 @@
       </c>
       <c r="K62" s="36"/>
     </row>
-    <row r="63" spans="1:12" ht="12.5" hidden="1">
+    <row r="63" spans="1:12" ht="12.5">
       <c r="A63" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B63" s="62"/>
       <c r="C63" s="19">
@@ -73039,7 +73035,7 @@
       <c r="I64" s="31"/>
       <c r="J64" s="36"/>
       <c r="L64" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="12.5">
@@ -73048,7 +73044,7 @@
         <v>Chairs</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D65" s="19">
         <v>0</v>
@@ -73062,7 +73058,7 @@
     </row>
     <row r="66" spans="1:12" ht="12.5">
       <c r="A66" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B66" s="48" t="s">
         <v>194</v>
@@ -73077,9 +73073,9 @@
       <c r="I66" s="31"/>
       <c r="J66" s="36"/>
     </row>
-    <row r="67" spans="1:12" ht="12.5" hidden="1">
+    <row r="67" spans="1:12" ht="12.5">
       <c r="A67" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E67" s="32">
         <v>1</v>
@@ -73092,9 +73088,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="12.5" hidden="1">
+    <row r="68" spans="1:12" ht="12.5">
       <c r="A68" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19">
@@ -73115,9 +73111,9 @@
       </c>
       <c r="K68" s="36"/>
     </row>
-    <row r="69" spans="1:12" ht="12.5" hidden="1">
+    <row r="69" spans="1:12" ht="12.5">
       <c r="A69" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E69" s="32">
         <v>1</v>
@@ -73133,12 +73129,12 @@
       </c>
       <c r="K69" s="36"/>
     </row>
-    <row r="70" spans="1:12" ht="12.5" hidden="1">
+    <row r="70" spans="1:12" ht="12.5">
       <c r="A70" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D70" s="19">
         <v>1</v>
@@ -73157,9 +73153,9 @@
       </c>
       <c r="K70" s="36"/>
     </row>
-    <row r="71" spans="1:12" ht="12.5" hidden="1">
+    <row r="71" spans="1:12" ht="12.5">
       <c r="A71" s="46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71" s="32">
         <v>1</v>
@@ -73177,9 +73173,9 @@
       </c>
       <c r="K71" s="36"/>
     </row>
-    <row r="72" spans="1:12" ht="12.5" hidden="1">
+    <row r="72" spans="1:12" ht="12.5">
       <c r="A72" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="19">
@@ -73201,9 +73197,9 @@
       </c>
       <c r="K72" s="36"/>
     </row>
-    <row r="73" spans="1:12" ht="12.5" hidden="1">
+    <row r="73" spans="1:12" ht="12.5">
       <c r="A73" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E73" s="32">
         <v>1</v>
@@ -73219,9 +73215,9 @@
       </c>
       <c r="K73" s="36"/>
     </row>
-    <row r="74" spans="1:12" ht="12.5" hidden="1">
+    <row r="74" spans="1:12" ht="12.5">
       <c r="A74" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E74" s="32">
         <v>1</v>
@@ -73239,12 +73235,12 @@
       </c>
       <c r="K74" s="36"/>
       <c r="L74" s="50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="12.5">
+      <c r="A75" s="46" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="12.5" hidden="1">
-      <c r="A75" s="46" t="s">
-        <v>308</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="19">
@@ -73264,9 +73260,9 @@
       </c>
       <c r="K75" s="36"/>
     </row>
-    <row r="76" spans="1:12" ht="12.5" hidden="1">
+    <row r="76" spans="1:12" ht="12.5">
       <c r="A76" s="59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E76" s="32">
         <v>1</v>
@@ -73282,9 +73278,9 @@
       </c>
       <c r="K76" s="36"/>
     </row>
-    <row r="77" spans="1:12" ht="12.5" hidden="1">
+    <row r="77" spans="1:12" ht="12.5">
       <c r="A77" s="67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="19">
@@ -73307,12 +73303,12 @@
       </c>
       <c r="K77" s="36"/>
       <c r="L77" s="50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="12.5">
+      <c r="A78" s="68" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="12.5" hidden="1">
-      <c r="A78" s="68" t="s">
-        <v>312</v>
       </c>
       <c r="B78" s="48" t="s">
         <v>194</v>
@@ -73336,7 +73332,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="12.5" hidden="1">
+    <row r="79" spans="1:12" ht="12.5">
       <c r="A79" s="46" t="s">
         <v>231</v>
       </c>
@@ -73363,9 +73359,9 @@
       </c>
       <c r="K79" s="36"/>
     </row>
-    <row r="80" spans="1:12" ht="12.5" hidden="1">
+    <row r="80" spans="1:12" ht="12.5">
       <c r="A80" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E80" s="32">
         <v>2</v>
@@ -73381,9 +73377,9 @@
       </c>
       <c r="K80" s="36"/>
     </row>
-    <row r="81" spans="1:12" ht="12.5" hidden="1">
+    <row r="81" spans="1:12" ht="12.5">
       <c r="A81" s="46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E81" s="32">
         <v>3</v>
@@ -73399,9 +73395,9 @@
       </c>
       <c r="K81" s="36"/>
     </row>
-    <row r="82" spans="1:12" ht="12.5" hidden="1">
+    <row r="82" spans="1:12" ht="12.5">
       <c r="A82" s="49" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B82" s="69"/>
       <c r="C82" s="19">
@@ -73420,9 +73416,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="12.5" hidden="1">
+    <row r="83" spans="1:12" ht="12.5">
       <c r="A83" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E83" s="32">
         <v>1</v>
@@ -73440,12 +73436,12 @@
       </c>
       <c r="K83" s="36"/>
       <c r="L83" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="12.5">
       <c r="A84" s="49" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D84" s="19">
         <v>1</v>
@@ -73457,9 +73453,9 @@
       <c r="I84" s="31"/>
       <c r="J84" s="36"/>
     </row>
-    <row r="85" spans="1:12" ht="12.5" hidden="1">
+    <row r="85" spans="1:12" ht="12.5">
       <c r="A85" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E85" s="32">
         <v>1</v>
@@ -73475,9 +73471,9 @@
       </c>
       <c r="K85" s="36"/>
     </row>
-    <row r="86" spans="1:12" ht="12.5" hidden="1">
+    <row r="86" spans="1:12" ht="12.5">
       <c r="A86" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B86" s="48" t="s">
         <v>194</v>
@@ -73502,9 +73498,9 @@
       </c>
       <c r="K86" s="36"/>
     </row>
-    <row r="87" spans="1:12" ht="12.5" hidden="1">
+    <row r="87" spans="1:12" ht="12.5">
       <c r="A87" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>194</v>
@@ -73529,9 +73525,9 @@
       </c>
       <c r="K87" s="36"/>
     </row>
-    <row r="88" spans="1:12" ht="12.5" hidden="1">
+    <row r="88" spans="1:12" ht="12.5">
       <c r="A88" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E88" s="32">
         <v>1</v>
@@ -73547,9 +73543,9 @@
       </c>
       <c r="K88" s="36"/>
     </row>
-    <row r="89" spans="1:12" ht="12.5" hidden="1">
+    <row r="89" spans="1:12" ht="12.5">
       <c r="A89" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" s="53"/>
       <c r="C89" s="19">
@@ -73571,9 +73567,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="12.5" hidden="1">
+    <row r="90" spans="1:12" ht="12.5">
       <c r="A90" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>194</v>
@@ -73595,15 +73591,15 @@
       </c>
       <c r="K90" s="36"/>
       <c r="L90" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="12.5">
       <c r="A91" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="31"/>
@@ -73612,7 +73608,7 @@
       <c r="I91" s="31"/>
       <c r="J91" s="36"/>
     </row>
-    <row r="92" spans="1:12" ht="12.5" hidden="1">
+    <row r="92" spans="1:12" ht="12.5">
       <c r="A92" s="46" t="s">
         <v>239</v>
       </c>
@@ -73638,9 +73634,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="12.5" hidden="1">
+    <row r="93" spans="1:12" ht="12.5">
       <c r="A93" s="70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B93" s="53"/>
       <c r="C93" s="19">
@@ -73665,7 +73661,7 @@
     </row>
     <row r="94" spans="1:12" ht="12.5">
       <c r="A94" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B94" s="48" t="s">
         <v>194</v>
@@ -73680,9 +73676,9 @@
       <c r="I94" s="31"/>
       <c r="J94" s="36"/>
     </row>
-    <row r="95" spans="1:12" ht="12.5" hidden="1">
+    <row r="95" spans="1:12" ht="12.5">
       <c r="A95" s="46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E95" s="32">
         <v>1</v>
@@ -73698,9 +73694,9 @@
       </c>
       <c r="K95" s="36"/>
     </row>
-    <row r="96" spans="1:12" ht="12.5" hidden="1">
+    <row r="96" spans="1:12" ht="12.5">
       <c r="A96" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>88</v>
@@ -73726,7 +73722,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="12.5" hidden="1">
+    <row r="97" spans="1:12" ht="12.5">
       <c r="A97" s="46" t="s">
         <v>238</v>
       </c>
@@ -73747,12 +73743,12 @@
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="12.5">
+      <c r="A98" s="46" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="12.5" hidden="1">
-      <c r="A98" s="46" t="s">
-        <v>330</v>
       </c>
       <c r="C98" s="19">
         <v>1</v>
@@ -73771,12 +73767,12 @@
       </c>
       <c r="K98" s="36"/>
       <c r="L98" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="12.5" hidden="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="12.5">
       <c r="A99" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E99" s="32">
         <v>1</v>
@@ -73791,9 +73787,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="12.5" hidden="1">
+    <row r="100" spans="1:12" ht="12.5">
       <c r="A100" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E100" s="32">
         <v>1</v>
@@ -73805,13 +73801,13 @@
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
       <c r="J100" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K100" s="36"/>
     </row>
-    <row r="101" spans="1:12" ht="12.5" hidden="1">
+    <row r="101" spans="1:12" ht="12.5">
       <c r="A101" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E101" s="32">
         <v>1</v>
@@ -73827,9 +73823,9 @@
       </c>
       <c r="K101" s="36"/>
     </row>
-    <row r="102" spans="1:12" ht="12.5" hidden="1">
+    <row r="102" spans="1:12" ht="12.5">
       <c r="A102" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="19">
@@ -73851,12 +73847,12 @@
       </c>
       <c r="K102" s="36"/>
       <c r="L102" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="12.5">
       <c r="A103" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="32" t="s">
@@ -73873,7 +73869,7 @@
     </row>
     <row r="104" spans="1:12" ht="12.5">
       <c r="A104" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C104" s="19">
         <v>1</v>
@@ -73889,9 +73885,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="12.5" hidden="1">
+    <row r="105" spans="1:12" ht="12.5">
       <c r="A105" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>194</v>
@@ -73912,9 +73908,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="12.5" hidden="1">
+    <row r="106" spans="1:12" ht="12.5">
       <c r="A106" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B106" s="48" t="s">
         <v>194</v>
@@ -73938,12 +73934,12 @@
         <v>213</v>
       </c>
       <c r="L106" s="50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="12.5">
+      <c r="A107" s="46" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="12.5" hidden="1">
-      <c r="A107" s="46" t="s">
-        <v>341</v>
       </c>
       <c r="C107" s="19">
         <v>1</v>
@@ -73961,9 +73957,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="12.5" hidden="1">
+    <row r="108" spans="1:12" ht="12.5">
       <c r="A108" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E108" s="32">
         <v>2</v>
@@ -73981,9 +73977,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="12.5" hidden="1">
+    <row r="109" spans="1:12" ht="12.5">
       <c r="A109" s="71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B109" s="53"/>
       <c r="C109" s="19">
@@ -74005,7 +74001,7 @@
     </row>
     <row r="110" spans="1:12" ht="12.5">
       <c r="A110" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B110" s="19" t="s">
         <v>194</v>
@@ -74023,7 +74019,7 @@
       <c r="I110" s="31"/>
       <c r="J110" s="36"/>
     </row>
-    <row r="111" spans="1:12" ht="12.5" hidden="1">
+    <row r="111" spans="1:12" ht="12.5">
       <c r="A111" s="46" t="s">
         <v>151</v>
       </c>
@@ -74043,12 +74039,12 @@
         <v>198</v>
       </c>
       <c r="L111" s="55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="12.5">
+      <c r="A112" s="46" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="12.5" hidden="1">
-      <c r="A112" s="46" t="s">
-        <v>346</v>
       </c>
       <c r="E112" s="32">
         <v>1</v>
@@ -74064,9 +74060,9 @@
       </c>
       <c r="K112" s="36"/>
     </row>
-    <row r="113" spans="1:12" ht="12.5" hidden="1">
+    <row r="113" spans="1:12" ht="12.5">
       <c r="A113" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E113" s="32">
         <v>1</v>
@@ -74083,9 +74079,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="12.5" hidden="1">
+    <row r="114" spans="1:12" ht="12.5">
       <c r="A114" s="46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C114" s="19">
         <v>1</v>
@@ -74103,12 +74099,12 @@
         <v>258</v>
       </c>
       <c r="L114" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="12.5">
       <c r="A115" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D115" s="19">
         <v>1</v>
@@ -74120,9 +74116,9 @@
       <c r="I115" s="31"/>
       <c r="J115" s="36"/>
     </row>
-    <row r="116" spans="1:12" ht="12.5" hidden="1">
+    <row r="116" spans="1:12" ht="12.5">
       <c r="A116" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C116" s="19">
         <v>1</v>
@@ -74140,12 +74136,12 @@
         <v>258</v>
       </c>
       <c r="L116" s="55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="12.5">
+      <c r="A117" s="46" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="12.5" hidden="1">
-      <c r="A117" s="46" t="s">
-        <v>353</v>
       </c>
       <c r="E117" s="32">
         <v>1</v>
@@ -74161,12 +74157,12 @@
       </c>
       <c r="K117" s="36"/>
       <c r="L117" s="55" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="12.5" hidden="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="12.5">
       <c r="A118" s="72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B118" s="48" t="s">
         <v>194</v>
@@ -74192,10 +74188,10 @@
     </row>
     <row r="119" spans="1:12" ht="12.5">
       <c r="A119" s="49" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E119" s="31"/>
       <c r="F119" s="31"/>
@@ -74206,7 +74202,7 @@
     </row>
     <row r="120" spans="1:12" ht="12.5">
       <c r="A120" s="49" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D120" s="19">
         <v>1</v>
@@ -74218,9 +74214,9 @@
       <c r="I120" s="31"/>
       <c r="J120" s="36"/>
     </row>
-    <row r="121" spans="1:12" ht="12.5" hidden="1">
+    <row r="121" spans="1:12" ht="12.5">
       <c r="A121" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E121" s="32">
         <v>1</v>
@@ -74239,56 +74235,60 @@
       <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:12" ht="12.5">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="B122" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D122" s="19">
+      <c r="C122" s="19"/>
+      <c r="E122" s="32">
         <v>1</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
+      <c r="F122" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G122" s="31"/>
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
-      <c r="J122" s="36"/>
-    </row>
-    <row r="123" spans="1:12" ht="12.5" hidden="1">
-      <c r="A123" s="46" t="s">
+      <c r="J122" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K122" s="36"/>
+    </row>
+    <row r="123" spans="1:12" ht="12.5">
+      <c r="A123" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="19"/>
-      <c r="E123" s="32">
-        <v>1</v>
-      </c>
-      <c r="F123" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B123" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
       <c r="G123" s="31"/>
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
-      <c r="J123" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K123" s="36"/>
+      <c r="J123" s="36"/>
     </row>
     <row r="124" spans="1:12" ht="12.5">
-      <c r="A124" s="105" t="s">
+      <c r="A124" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
+      <c r="C124" s="19">
+        <v>1</v>
+      </c>
+      <c r="E124" s="32">
+        <v>1</v>
+      </c>
+      <c r="F124" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G124" s="31"/>
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
-      <c r="J124" s="36"/>
-    </row>
-    <row r="125" spans="1:12" ht="12.5" hidden="1">
+      <c r="J124" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K124" s="36"/>
+    </row>
+    <row r="125" spans="1:12" ht="12.5">
       <c r="A125" s="73" t="s">
         <v>359</v>
       </c>
@@ -74309,12 +74309,9 @@
       </c>
       <c r="K125" s="36"/>
     </row>
-    <row r="126" spans="1:12" ht="12.5" hidden="1">
-      <c r="A126" s="73" t="s">
+    <row r="126" spans="1:12" ht="12.5">
+      <c r="A126" s="46" t="s">
         <v>360</v>
-      </c>
-      <c r="C126" s="19">
-        <v>1</v>
       </c>
       <c r="E126" s="32">
         <v>1</v>
@@ -74326,37 +74323,33 @@
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
       <c r="J126" s="19" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="K126" s="36"/>
     </row>
-    <row r="127" spans="1:12" ht="12.5" hidden="1">
-      <c r="A127" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="E127" s="32">
+    <row r="127" spans="1:12" ht="12.5">
+      <c r="A127" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D127" s="19">
         <v>1</v>
       </c>
-      <c r="F127" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
       <c r="G127" s="31"/>
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
-      <c r="J127" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K127" s="36"/>
+      <c r="J127" s="36"/>
     </row>
     <row r="128" spans="1:12" ht="12.5">
-      <c r="A128" s="49" t="s">
-        <v>648</v>
-      </c>
-      <c r="B128" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D128" s="19">
-        <v>1</v>
+      <c r="A128" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E128" s="31"/>
       <c r="F128" s="31"/>
@@ -74364,95 +74357,107 @@
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
       <c r="J128" s="36"/>
+      <c r="L128" s="55" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="129" spans="1:12" ht="12.5">
-      <c r="A129" s="74" t="s">
-        <v>362</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E129" s="31"/>
+      <c r="A129" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="E129" s="32">
+        <v>1</v>
+      </c>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
+      <c r="H129" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="I129" s="31"/>
-      <c r="J129" s="36"/>
+      <c r="J129" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K129" s="36"/>
       <c r="L129" s="55" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="12.5" hidden="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="12.5">
       <c r="A130" s="46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E130" s="32">
-        <v>1</v>
-      </c>
-      <c r="F130" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G130" s="31"/>
-      <c r="H130" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="H130" s="31"/>
       <c r="I130" s="31"/>
       <c r="J130" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K130" s="36"/>
-      <c r="L130" s="55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="12.5" hidden="1">
+        <v>262</v>
+      </c>
+      <c r="K130" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="12.5">
       <c r="A131" s="46" t="s">
         <v>366</v>
       </c>
+      <c r="B131" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" s="19">
+        <v>1</v>
+      </c>
       <c r="E131" s="32">
-        <v>2</v>
-      </c>
-      <c r="F131" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="31"/>
+      <c r="G131" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G131" s="31"/>
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
       <c r="J131" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K131" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="12.5" hidden="1">
+        <v>258</v>
+      </c>
+      <c r="K131" s="36"/>
+      <c r="L131" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="12.5">
       <c r="A132" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="B132" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D132" s="19">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="E132" s="32">
         <v>1</v>
       </c>
-      <c r="F132" s="31"/>
-      <c r="G132" s="32" t="s">
+      <c r="F132" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G132" s="31"/>
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
       <c r="J132" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K132" s="36"/>
-      <c r="L132" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K132" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="12.5">
+      <c r="A133" s="46" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="12.5" hidden="1">
-      <c r="A133" s="46" t="s">
-        <v>356</v>
+      <c r="B133" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D133" s="19">
+        <v>1</v>
       </c>
       <c r="E133" s="32">
         <v>1</v>
@@ -74464,21 +74469,13 @@
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
       <c r="J133" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K133" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="12.5" hidden="1">
-      <c r="A134" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="K133" s="36"/>
+    </row>
+    <row r="134" spans="1:12" ht="12.5">
+      <c r="A134" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="B134" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D134" s="19">
-        <v>1</v>
       </c>
       <c r="E134" s="32">
         <v>1</v>
@@ -74490,26 +74487,25 @@
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
       <c r="J134" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K134" s="36"/>
-    </row>
-    <row r="135" spans="1:12" ht="12.5" hidden="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="12.5">
       <c r="A135" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="E135" s="32">
-        <v>1</v>
-      </c>
-      <c r="F135" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B135" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="19">
+        <v>2</v>
+      </c>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
       <c r="G135" s="31"/>
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
-      <c r="J135" s="19" t="s">
-        <v>258</v>
-      </c>
+      <c r="J135" s="36"/>
     </row>
     <row r="136" spans="1:12" ht="12.5">
       <c r="A136" s="19" t="s">
@@ -74519,7 +74515,7 @@
         <v>194</v>
       </c>
       <c r="D136" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" s="31"/>
       <c r="F136" s="31"/>
@@ -74529,58 +74525,54 @@
       <c r="J136" s="36"/>
     </row>
     <row r="137" spans="1:12" ht="12.5">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="105" t="s">
         <v>372</v>
       </c>
       <c r="B137" s="48" t="s">
         <v>194</v>
       </c>
+      <c r="C137" s="19">
+        <v>1</v>
+      </c>
       <c r="D137" s="19">
         <v>1</v>
       </c>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
+      <c r="E137" s="32">
+        <v>1</v>
+      </c>
+      <c r="F137" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G137" s="31"/>
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
-      <c r="J137" s="36"/>
-    </row>
-    <row r="138" spans="1:12" ht="12.5" hidden="1">
-      <c r="A138" s="105" t="s">
+      <c r="J137" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="12.5">
+      <c r="A138" s="75" t="s">
         <v>373</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C138" s="19">
-        <v>1</v>
-      </c>
-      <c r="D138" s="19">
-        <v>1</v>
-      </c>
-      <c r="E138" s="32">
-        <v>1</v>
-      </c>
-      <c r="F138" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
       <c r="G138" s="31"/>
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
-      <c r="J138" s="19" t="s">
-        <v>258</v>
-      </c>
+      <c r="J138" s="36"/>
     </row>
     <row r="139" spans="1:12" ht="12.5">
-      <c r="A139" s="75" t="s">
+      <c r="A139" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="B139" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="B139" s="19"/>
+      <c r="D139" s="19"/>
       <c r="E139" s="31"/>
       <c r="F139" s="31"/>
       <c r="G139" s="31"/>
@@ -74589,155 +74581,162 @@
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:12" ht="12.5">
-      <c r="A140" s="76" t="s">
+      <c r="A140" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="31"/>
+      <c r="E140" s="32">
+        <v>4</v>
+      </c>
       <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
+      <c r="G140" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
-      <c r="J140" s="36"/>
-    </row>
-    <row r="141" spans="1:12" ht="12.5" hidden="1">
+      <c r="J140" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K140" s="36"/>
+      <c r="L140" s="50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="12.5">
       <c r="A141" s="46" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="B141" s="48"/>
+      <c r="C141" s="19">
+        <v>1</v>
       </c>
       <c r="E141" s="32">
-        <v>4</v>
-      </c>
-      <c r="F141" s="31"/>
-      <c r="G141" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G141" s="31"/>
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
       <c r="J141" s="19" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="K141" s="36"/>
-      <c r="L141" s="50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="12.5" hidden="1">
-      <c r="A142" s="46" t="s">
+    </row>
+    <row r="142" spans="1:12" ht="12.5">
+      <c r="A142" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="B142" s="48"/>
-      <c r="C142" s="19">
-        <v>1</v>
-      </c>
-      <c r="E142" s="32">
-        <v>1</v>
-      </c>
-      <c r="F142" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B142" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D142" s="19">
+        <v>0</v>
+      </c>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
       <c r="G142" s="31"/>
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
-      <c r="J142" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K142" s="36"/>
+      <c r="J142" s="36"/>
     </row>
     <row r="143" spans="1:12" ht="12.5">
-      <c r="A143" s="77" t="s">
+      <c r="A143" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D143" s="19">
-        <v>0</v>
-      </c>
-      <c r="E143" s="31"/>
+      <c r="B143" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E143" s="32">
+        <v>1</v>
+      </c>
       <c r="F143" s="31"/>
       <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
+      <c r="H143" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="I143" s="31"/>
-      <c r="J143" s="36"/>
-    </row>
-    <row r="144" spans="1:12" ht="12.5" hidden="1">
-      <c r="A144" s="105" t="s">
+      <c r="J143" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K143" s="36"/>
+      <c r="L143" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="B144" s="48" t="s">
-        <v>194</v>
+    </row>
+    <row r="144" spans="1:12" ht="12.5">
+      <c r="A144" s="46" t="s">
+        <v>381</v>
       </c>
       <c r="E144" s="32">
-        <v>1</v>
-      </c>
-      <c r="F144" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G144" s="31"/>
-      <c r="H144" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="H144" s="31"/>
       <c r="I144" s="31"/>
       <c r="J144" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K144" s="36"/>
-      <c r="L144" s="50" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="12.5" hidden="1">
+        <v>213</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="12.5">
       <c r="A145" s="46" t="s">
         <v>382</v>
       </c>
+      <c r="B145" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" s="19">
+        <v>1</v>
+      </c>
       <c r="E145" s="32">
-        <v>3</v>
-      </c>
-      <c r="F145" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="31"/>
+      <c r="G145" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G145" s="31"/>
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="K145" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="12.5" hidden="1">
-      <c r="A146" s="46" t="s">
+      <c r="K145" s="36"/>
+      <c r="L145" s="50" t="s">
         <v>383</v>
       </c>
+    </row>
+    <row r="146" spans="1:12" ht="12.5">
+      <c r="A146" s="74" t="s">
+        <v>384</v>
+      </c>
       <c r="B146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C146" s="19">
-        <v>1</v>
-      </c>
-      <c r="E146" s="32">
-        <v>1</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E146" s="31"/>
       <c r="F146" s="31"/>
-      <c r="G146" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G146" s="31"/>
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
-      <c r="J146" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K146" s="36"/>
-      <c r="L146" s="50" t="s">
-        <v>384</v>
+      <c r="J146" s="36"/>
+      <c r="L146" s="55" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="12.5">
-      <c r="A147" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>208</v>
+      <c r="A147" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B147" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D147" s="19">
+        <v>1</v>
       </c>
       <c r="E147" s="31"/>
       <c r="F147" s="31"/>
@@ -74745,116 +74744,123 @@
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
       <c r="J147" s="36"/>
-      <c r="L147" s="55" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="148" spans="1:12" ht="12.5">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B148" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D148" s="19">
+      <c r="E148" s="32">
         <v>1</v>
       </c>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
+      <c r="F148" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G148" s="31"/>
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
-      <c r="J148" s="36"/>
-    </row>
-    <row r="149" spans="1:12" ht="12.5" hidden="1">
-      <c r="A149" s="46" t="s">
+      <c r="J148" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K148" s="36"/>
+    </row>
+    <row r="149" spans="1:12" ht="12.5">
+      <c r="A149" s="105" t="s">
         <v>388</v>
       </c>
-      <c r="E149" s="32">
-        <v>1</v>
-      </c>
-      <c r="F149" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B149" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
       <c r="G149" s="31"/>
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
-      <c r="J149" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="K149" s="36"/>
+      <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:12" ht="12.5">
-      <c r="A150" s="105" t="s">
+      <c r="A150" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="B150" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E150" s="31"/>
+      <c r="C150" s="19">
+        <v>1</v>
+      </c>
+      <c r="E150" s="32">
+        <v>3</v>
+      </c>
       <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
+      <c r="G150" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
-      <c r="J150" s="36"/>
-    </row>
-    <row r="151" spans="1:12" ht="12.5" hidden="1">
+      <c r="J150" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="12.5">
       <c r="A151" s="46" t="s">
         <v>390</v>
       </c>
+      <c r="B151" s="48"/>
       <c r="C151" s="19">
+        <v>2</v>
+      </c>
+      <c r="E151" s="32">
         <v>1</v>
       </c>
-      <c r="E151" s="32">
-        <v>3</v>
-      </c>
-      <c r="F151" s="31"/>
-      <c r="G151" s="32" t="s">
+      <c r="F151" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G151" s="31"/>
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
       <c r="J151" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K151" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="12.5" hidden="1">
-      <c r="A152" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K151" s="36"/>
+    </row>
+    <row r="152" spans="1:12" ht="12.5">
+      <c r="A152" s="78" t="s">
         <v>391</v>
       </c>
-      <c r="B152" s="48"/>
+      <c r="B152" s="48" t="s">
+        <v>194</v>
+      </c>
       <c r="C152" s="19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D152" s="19">
+        <v>1</v>
       </c>
       <c r="E152" s="32">
         <v>1</v>
       </c>
-      <c r="F152" s="32" t="s">
+      <c r="F152" s="31"/>
+      <c r="G152" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G152" s="31"/>
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
       <c r="J152" s="19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K152" s="36"/>
-    </row>
-    <row r="153" spans="1:12" ht="12.5" hidden="1">
-      <c r="A153" s="78" t="s">
+      <c r="L152" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="B153" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C153" s="19">
-        <v>1</v>
+    </row>
+    <row r="153" spans="1:12" ht="12.5">
+      <c r="A153" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="D153" s="19">
         <v>1</v>
@@ -74862,26 +74868,25 @@
       <c r="E153" s="32">
         <v>1</v>
       </c>
-      <c r="F153" s="31"/>
-      <c r="G153" s="32" t="s">
+      <c r="F153" s="32"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H153" s="31"/>
       <c r="I153" s="31"/>
       <c r="J153" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K153" s="36"/>
-      <c r="L153" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="K153" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="12.5">
+      <c r="A154" s="54" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="12.5" hidden="1">
-      <c r="A154" s="49" t="s">
-        <v>634</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>279</v>
+      <c r="B154" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D154" s="19">
         <v>1</v>
@@ -74889,31 +74894,27 @@
       <c r="E154" s="32">
         <v>1</v>
       </c>
-      <c r="F154" s="32"/>
+      <c r="F154" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G154" s="31"/>
-      <c r="H154" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="H154" s="31"/>
       <c r="I154" s="31"/>
       <c r="J154" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K154" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="12.5" hidden="1">
-      <c r="A155" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="K154" s="36"/>
+    </row>
+    <row r="155" spans="1:12" ht="12.5">
+      <c r="A155" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D155" s="19">
-        <v>1</v>
+      <c r="B155" s="53"/>
+      <c r="C155" s="19">
+        <v>3</v>
       </c>
       <c r="E155" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F155" s="32" t="s">
         <v>32</v>
@@ -74922,20 +74923,21 @@
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
       <c r="J155" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K155" s="36"/>
-    </row>
-    <row r="156" spans="1:12" ht="12.5" hidden="1">
-      <c r="A156" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="12.5">
+      <c r="A156" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="B156" s="53"/>
       <c r="C156" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F156" s="32" t="s">
         <v>32</v>
@@ -74944,18 +74946,13 @@
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
       <c r="J156" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K156" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="12.5" hidden="1">
-      <c r="A157" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="K156" s="36"/>
+    </row>
+    <row r="157" spans="1:12" ht="12.5">
+      <c r="A157" s="46" t="s">
         <v>396</v>
-      </c>
-      <c r="C157" s="19">
-        <v>1</v>
       </c>
       <c r="E157" s="32">
         <v>1</v>
@@ -74967,58 +74964,57 @@
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
       <c r="J157" s="19" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="K157" s="36"/>
     </row>
-    <row r="158" spans="1:12" ht="12.5" hidden="1">
-      <c r="A158" s="46" t="s">
+    <row r="158" spans="1:12" ht="12.5">
+      <c r="A158" s="78" t="s">
         <v>397</v>
       </c>
       <c r="E158" s="32">
         <v>1</v>
       </c>
-      <c r="F158" s="32" t="s">
+      <c r="F158" s="31"/>
+      <c r="G158" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G158" s="31"/>
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
       <c r="J158" s="19" t="s">
         <v>251</v>
       </c>
       <c r="K158" s="36"/>
-    </row>
-    <row r="159" spans="1:12" ht="12.5" hidden="1">
-      <c r="A159" s="78" t="s">
+      <c r="L158" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="E159" s="32">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="159" spans="1:12" ht="12.5">
+      <c r="A159" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="B159" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E159" s="31"/>
       <c r="F159" s="31"/>
-      <c r="G159" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G159" s="31"/>
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
-      <c r="J159" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K159" s="36"/>
-      <c r="L159" s="50" t="s">
-        <v>399</v>
-      </c>
+      <c r="J159" s="36"/>
     </row>
     <row r="160" spans="1:12" ht="12.5">
-      <c r="A160" s="75" t="s">
-        <v>400</v>
-      </c>
-      <c r="B160" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D160" s="19" t="s">
-        <v>197</v>
+      <c r="A160" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D160" s="19">
+        <v>0</v>
       </c>
       <c r="E160" s="31"/>
       <c r="F160" s="31"/>
@@ -75028,111 +75024,112 @@
       <c r="J160" s="36"/>
     </row>
     <row r="161" spans="1:12" ht="12.5">
-      <c r="A161" s="49" t="s">
-        <v>647</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>279</v>
+      <c r="A161" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="B161" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D161" s="19">
-        <v>0</v>
-      </c>
-      <c r="E161" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="32">
+        <v>1</v>
+      </c>
       <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
+      <c r="G161" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
-      <c r="J161" s="36"/>
-    </row>
-    <row r="162" spans="1:12" ht="12.5" hidden="1">
-      <c r="A162" s="46" t="s">
+      <c r="J161" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K161" s="36"/>
+      <c r="L161" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="B162" s="48" t="s">
-        <v>194</v>
+    </row>
+    <row r="162" spans="1:12" ht="12.5">
+      <c r="A162" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B162" s="62" t="s">
+        <v>270</v>
       </c>
       <c r="D162" s="19">
-        <v>1</v>
-      </c>
-      <c r="E162" s="32">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E162" s="31"/>
       <c r="F162" s="31"/>
-      <c r="G162" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G162" s="31"/>
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
-      <c r="J162" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K162" s="36"/>
-      <c r="L162" s="50" t="s">
-        <v>402</v>
-      </c>
+      <c r="J162" s="36"/>
     </row>
     <row r="163" spans="1:12" ht="12.5">
-      <c r="A163" s="19" t="s">
+      <c r="A163" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="B163" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D163" s="19">
-        <v>0</v>
-      </c>
-      <c r="E163" s="31"/>
+      <c r="E163" s="32">
+        <v>1</v>
+      </c>
       <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
+      <c r="G163" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
-      <c r="J163" s="36"/>
-    </row>
-    <row r="164" spans="1:12" ht="12.5" hidden="1">
-      <c r="A164" s="78" t="s">
+      <c r="J163" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K163" s="36"/>
+      <c r="L163" s="50" t="s">
         <v>404</v>
       </c>
+    </row>
+    <row r="164" spans="1:12" ht="12.5">
+      <c r="A164" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B164" s="53"/>
+      <c r="C164" s="19">
+        <v>2</v>
+      </c>
       <c r="E164" s="32">
-        <v>1</v>
-      </c>
-      <c r="F164" s="31"/>
-      <c r="G164" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G164" s="31"/>
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
       <c r="J164" s="19" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="K164" s="36"/>
-      <c r="L164" s="50" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="12.5" hidden="1">
+    </row>
+    <row r="165" spans="1:12" ht="12.5">
       <c r="A165" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="B165" s="53"/>
-      <c r="C165" s="19">
-        <v>2</v>
-      </c>
       <c r="E165" s="32">
-        <v>2</v>
-      </c>
-      <c r="F165" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="31"/>
+      <c r="G165" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G165" s="31"/>
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
       <c r="J165" s="19" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="K165" s="36"/>
     </row>
-    <row r="166" spans="1:12" ht="12.5" hidden="1">
-      <c r="A166" s="46" t="s">
+    <row r="166" spans="1:12" ht="12.5">
+      <c r="A166" s="78" t="s">
         <v>407</v>
       </c>
       <c r="E166" s="32">
@@ -75148,68 +75145,67 @@
         <v>198</v>
       </c>
       <c r="K166" s="36"/>
-    </row>
-    <row r="167" spans="1:12" ht="12.5" hidden="1">
-      <c r="A167" s="78" t="s">
+      <c r="L166" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="E167" s="32">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="167" spans="1:12" ht="12.5">
+      <c r="A167" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B167" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D167" s="19">
+        <v>2</v>
+      </c>
+      <c r="E167" s="31"/>
       <c r="F167" s="31"/>
-      <c r="G167" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G167" s="31"/>
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
-      <c r="J167" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K167" s="36"/>
-      <c r="L167" s="50" t="s">
-        <v>409</v>
-      </c>
+      <c r="J167" s="36"/>
     </row>
     <row r="168" spans="1:12" ht="12.5">
-      <c r="A168" s="19" t="s">
+      <c r="A168" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="B168" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D168" s="19">
-        <v>2</v>
-      </c>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
+      <c r="E168" s="32">
+        <v>1</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G168" s="31"/>
       <c r="H168" s="31"/>
-      <c r="I168" s="31"/>
-      <c r="J168" s="36"/>
-    </row>
-    <row r="169" spans="1:12" ht="12.5" hidden="1">
-      <c r="A169" s="46" t="s">
+      <c r="I168" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J168" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K168" s="36"/>
+    </row>
+    <row r="169" spans="1:12" ht="12.5">
+      <c r="A169" s="105" t="s">
         <v>411</v>
       </c>
-      <c r="E169" s="32">
+      <c r="B169" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D169" s="19">
         <v>1</v>
       </c>
-      <c r="F169" s="32" t="s">
-        <v>412</v>
-      </c>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
       <c r="G169" s="31"/>
       <c r="H169" s="31"/>
-      <c r="I169" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J169" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K169" s="36"/>
+      <c r="I169" s="31"/>
+      <c r="J169" s="36"/>
     </row>
     <row r="170" spans="1:12" ht="12.5">
-      <c r="A170" s="105" t="s">
-        <v>413</v>
+      <c r="A170" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="B170" s="48" t="s">
         <v>200</v>
@@ -75225,11 +75221,11 @@
       <c r="J170" s="36"/>
     </row>
     <row r="171" spans="1:12" ht="12.5">
-      <c r="A171" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B171" s="48" t="s">
-        <v>200</v>
+      <c r="A171" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="D171" s="19">
         <v>1</v>
@@ -75240,99 +75236,100 @@
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
       <c r="J171" s="36"/>
+      <c r="L171" s="55" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="172" spans="1:12" ht="12.5">
-      <c r="A172" s="74" t="s">
+      <c r="A172" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="B172" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D172" s="19">
+      <c r="B172" s="62"/>
+      <c r="C172" s="19">
         <v>1</v>
       </c>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
+      <c r="E172" s="32">
+        <v>1</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G172" s="31"/>
       <c r="H172" s="31"/>
-      <c r="I172" s="31"/>
-      <c r="J172" s="36"/>
-      <c r="L172" s="55" t="s">
+      <c r="I172" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J172" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="K172" s="36"/>
+    </row>
+    <row r="173" spans="1:12" ht="12.5">
+      <c r="A173" s="79" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="12.5" hidden="1">
-      <c r="A173" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="B173" s="62"/>
-      <c r="C173" s="19">
+      <c r="B173" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" s="19">
         <v>1</v>
       </c>
-      <c r="E173" s="32">
-        <v>1</v>
-      </c>
-      <c r="F173" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
       <c r="G173" s="31"/>
       <c r="H173" s="31"/>
-      <c r="I173" s="32" t="s">
+      <c r="I173" s="31"/>
+      <c r="J173" s="36"/>
+    </row>
+    <row r="174" spans="1:12" ht="12.5">
+      <c r="A174" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="E174" s="32">
+        <v>1</v>
+      </c>
+      <c r="F174" s="31"/>
+      <c r="G174" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J173" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K173" s="36"/>
-    </row>
-    <row r="174" spans="1:12" ht="12.5">
-      <c r="A174" s="79" t="s">
-        <v>418</v>
-      </c>
-      <c r="B174" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D174" s="19">
-        <v>1</v>
-      </c>
-      <c r="E174" s="31"/>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
-      <c r="J174" s="36"/>
-    </row>
-    <row r="175" spans="1:12" ht="12.5" hidden="1">
-      <c r="A175" s="78" t="s">
+      <c r="J174" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K174" s="36"/>
+      <c r="L174" s="50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="12.5">
+      <c r="A175" s="70" t="s">
         <v>419</v>
       </c>
+      <c r="B175" s="53"/>
+      <c r="C175" s="19">
+        <v>5</v>
+      </c>
       <c r="E175" s="32">
-        <v>1</v>
-      </c>
-      <c r="F175" s="31"/>
-      <c r="G175" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G175" s="31"/>
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
       <c r="J175" s="19" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K175" s="36"/>
-      <c r="L175" s="50" t="s">
+    </row>
+    <row r="176" spans="1:12" ht="12.5">
+      <c r="A176" s="19" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="12.5" hidden="1">
-      <c r="A176" s="70" t="s">
-        <v>421</v>
-      </c>
-      <c r="B176" s="53"/>
-      <c r="C176" s="19">
-        <v>5</v>
-      </c>
       <c r="E176" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F176" s="32" t="s">
         <v>32</v>
@@ -75341,53 +75338,58 @@
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
       <c r="J176" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K176" s="36"/>
-    </row>
-    <row r="177" spans="1:12" ht="12.5" hidden="1">
-      <c r="A177" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="E177" s="32">
-        <v>1</v>
-      </c>
-      <c r="F177" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="K176" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="12.5">
+      <c r="A177" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
       <c r="G177" s="31"/>
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
-      <c r="J177" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K177" s="19" t="s">
-        <v>195</v>
-      </c>
+      <c r="J177" s="36"/>
     </row>
     <row r="178" spans="1:12" ht="12.5">
-      <c r="A178" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31"/>
+      <c r="A178" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" s="62"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="32">
+        <v>1</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G178" s="31"/>
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
-      <c r="J178" s="36"/>
-    </row>
-    <row r="179" spans="1:12" ht="12.5" hidden="1">
+      <c r="J178" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K178" s="36"/>
+    </row>
+    <row r="179" spans="1:12" ht="12.5">
       <c r="A179" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B179" s="62"/>
-      <c r="C179" s="19"/>
+      <c r="C179" s="19">
+        <v>1</v>
+      </c>
       <c r="D179" s="19"/>
       <c r="E179" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" s="32" t="s">
         <v>32</v>
@@ -75400,34 +75402,38 @@
       </c>
       <c r="K179" s="36"/>
     </row>
-    <row r="180" spans="1:12" ht="12.5" hidden="1">
+    <row r="180" spans="1:12" ht="12.5">
       <c r="A180" s="46" t="s">
-        <v>425</v>
-      </c>
-      <c r="B180" s="62"/>
+        <v>424</v>
+      </c>
+      <c r="B180" s="48"/>
       <c r="C180" s="19">
         <v>1</v>
       </c>
-      <c r="D180" s="19"/>
       <c r="E180" s="32">
-        <v>2</v>
-      </c>
-      <c r="F180" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G180" s="31"/>
-      <c r="H180" s="31"/>
       <c r="I180" s="31"/>
       <c r="J180" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K180" s="36"/>
-    </row>
-    <row r="181" spans="1:12" ht="12.5" hidden="1">
-      <c r="A181" s="46" t="s">
+      <c r="L180" s="55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="12.5">
+      <c r="A181" s="78" t="s">
         <v>426</v>
       </c>
-      <c r="B181" s="48"/>
+      <c r="B181" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="C181" s="19">
         <v>1</v>
       </c>
@@ -75435,20 +75441,19 @@
         <v>1</v>
       </c>
       <c r="F181" s="31"/>
-      <c r="G181" s="31"/>
-      <c r="H181" s="32" t="s">
+      <c r="G181" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="H181" s="31"/>
       <c r="I181" s="31"/>
       <c r="J181" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K181" s="36"/>
-      <c r="L181" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="L181" s="50" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="12.5" hidden="1">
+    <row r="182" spans="1:12" ht="12.5">
       <c r="A182" s="78" t="s">
         <v>428</v>
       </c>
@@ -75474,12 +75479,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="12.5" hidden="1">
-      <c r="A183" s="78" t="s">
+    <row r="183" spans="1:12" ht="12.5">
+      <c r="A183" s="46" t="s">
         <v>430</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="C183" s="19">
         <v>1</v>
@@ -75496,40 +75498,31 @@
       <c r="J183" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="L183" s="50" t="s">
+      <c r="K183" s="36"/>
+    </row>
+    <row r="184" spans="1:12" ht="12.5">
+      <c r="A184" s="19" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="12.5" hidden="1">
-      <c r="A184" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="C184" s="19">
-        <v>1</v>
-      </c>
-      <c r="E184" s="32">
-        <v>1</v>
-      </c>
+      <c r="B184" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D184" s="19">
+        <v>2</v>
+      </c>
+      <c r="E184" s="31"/>
       <c r="F184" s="31"/>
-      <c r="G184" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G184" s="31"/>
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
-      <c r="J184" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K184" s="36"/>
+      <c r="J184" s="36"/>
     </row>
     <row r="185" spans="1:12" ht="12.5">
-      <c r="A185" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B185" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D185" s="19">
-        <v>2</v>
+      <c r="A185" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E185" s="31"/>
       <c r="F185" s="31"/>
@@ -75539,110 +75532,118 @@
       <c r="J185" s="36"/>
     </row>
     <row r="186" spans="1:12" ht="12.5">
-      <c r="A186" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>88</v>
+      <c r="A186" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="C186" s="19">
+        <v>1</v>
       </c>
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
-      <c r="H186" s="31"/>
-      <c r="I186" s="31"/>
-      <c r="J186" s="36"/>
+      <c r="H186" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I186" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J186" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L186" s="55" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="187" spans="1:12" ht="12.5">
-      <c r="A187" s="81" t="s">
+      <c r="A187" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E187" s="32">
+        <v>1</v>
+      </c>
+      <c r="F187" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="31"/>
+      <c r="J187" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="12.5">
+      <c r="A188" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C187" s="19">
+      <c r="D188" s="19">
         <v>1</v>
       </c>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="31"/>
-      <c r="H187" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I187" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="L187" s="55" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="12.5" hidden="1">
-      <c r="A188" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="E188" s="32">
-        <v>1</v>
-      </c>
-      <c r="F188" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
       <c r="G188" s="31"/>
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
-      <c r="J188" s="19" t="s">
-        <v>202</v>
-      </c>
+      <c r="J188" s="36"/>
     </row>
     <row r="189" spans="1:12" ht="12.5">
-      <c r="A189" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="D189" s="19">
+      <c r="A189" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="B189" s="62"/>
+      <c r="C189" s="19">
         <v>1</v>
       </c>
-      <c r="E189" s="31"/>
+      <c r="E189" s="32">
+        <v>1</v>
+      </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
-      <c r="H189" s="31"/>
+      <c r="H189" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="I189" s="31"/>
-      <c r="J189" s="36"/>
-    </row>
-    <row r="190" spans="1:12" ht="12.5" hidden="1">
-      <c r="A190" s="63" t="s">
+      <c r="J189" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K189" s="36"/>
+      <c r="L189" s="55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="12.5">
+      <c r="A190" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="B190" s="62"/>
-      <c r="C190" s="19">
-        <v>1</v>
+      <c r="B190" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D190" s="19">
+        <v>0</v>
       </c>
       <c r="E190" s="32">
         <v>1</v>
       </c>
-      <c r="F190" s="31"/>
+      <c r="F190" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G190" s="31"/>
-      <c r="H190" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="H190" s="31"/>
       <c r="I190" s="31"/>
       <c r="J190" s="19" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="K190" s="36"/>
-      <c r="L190" s="55" t="s">
+    </row>
+    <row r="191" spans="1:12" ht="12.5">
+      <c r="A191" s="70" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="12.5" hidden="1">
-      <c r="A191" s="105" t="s">
-        <v>440</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D191" s="19">
-        <v>0</v>
+      <c r="B191" s="48"/>
+      <c r="C191" s="19">
+        <v>3</v>
       </c>
       <c r="E191" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F191" s="32" t="s">
         <v>32</v>
@@ -75651,72 +75652,77 @@
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
       <c r="J191" s="19" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="K191" s="36"/>
     </row>
-    <row r="192" spans="1:12" ht="12.5" hidden="1">
-      <c r="A192" s="70" t="s">
-        <v>441</v>
-      </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="19">
-        <v>3</v>
-      </c>
-      <c r="E192" s="32">
-        <v>3</v>
-      </c>
-      <c r="F192" s="32" t="s">
-        <v>32</v>
-      </c>
+    <row r="192" spans="1:12" ht="12.5">
+      <c r="A192" s="105" t="s">
+        <v>440</v>
+      </c>
+      <c r="B192" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D192" s="19">
+        <v>1</v>
+      </c>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
       <c r="G192" s="31"/>
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
-      <c r="J192" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K192" s="36"/>
+      <c r="J192" s="36"/>
     </row>
     <row r="193" spans="1:12" ht="12.5">
-      <c r="A193" s="105" t="s">
-        <v>442</v>
-      </c>
-      <c r="B193" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D193" s="19">
+      <c r="A193" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="E193" s="32">
         <v>1</v>
       </c>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
+      <c r="F193" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G193" s="31"/>
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
-      <c r="J193" s="36"/>
-    </row>
-    <row r="194" spans="1:12" ht="12.5" hidden="1">
-      <c r="A194" s="46" t="s">
-        <v>443</v>
+      <c r="J193" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K193" s="36"/>
+    </row>
+    <row r="194" spans="1:12" ht="12.5">
+      <c r="A194" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="B194" s="62"/>
+      <c r="C194" s="19">
+        <v>1</v>
       </c>
       <c r="E194" s="32">
         <v>1</v>
       </c>
-      <c r="F194" s="32" t="s">
+      <c r="F194" s="31"/>
+      <c r="G194" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G194" s="31"/>
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
       <c r="J194" s="19" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="K194" s="36"/>
-    </row>
-    <row r="195" spans="1:12" ht="12.5" hidden="1">
-      <c r="A195" s="82" t="s">
+      <c r="L194" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="12.5">
+      <c r="A195" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="B195" s="62"/>
+      <c r="B195" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="C195" s="19">
         <v>1</v>
       </c>
@@ -75737,81 +75743,75 @@
         <v>445</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="12.5" hidden="1">
-      <c r="A196" s="78" t="s">
+    <row r="196" spans="1:12" ht="12.5">
+      <c r="A196" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="B196" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C196" s="19">
-        <v>1</v>
-      </c>
+      <c r="B196" s="62"/>
+      <c r="C196" s="19"/>
       <c r="E196" s="32">
         <v>1</v>
       </c>
-      <c r="F196" s="31"/>
+      <c r="F196" s="32"/>
       <c r="G196" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H196" s="31"/>
-      <c r="I196" s="31"/>
+      <c r="I196" s="32"/>
       <c r="J196" s="19" t="s">
         <v>213</v>
       </c>
       <c r="K196" s="36"/>
-      <c r="L196" s="50" t="s">
+    </row>
+    <row r="197" spans="1:12" ht="12.5">
+      <c r="A197" s="54" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="12.5" hidden="1">
-      <c r="A197" s="46" t="s">
+      <c r="B197" s="62"/>
+      <c r="C197" s="19">
+        <v>3</v>
+      </c>
+      <c r="E197" s="32">
+        <v>3</v>
+      </c>
+      <c r="F197" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G197" s="31"/>
+      <c r="H197" s="31"/>
+      <c r="I197" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J197" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K197" s="36"/>
+    </row>
+    <row r="198" spans="1:12" ht="12.5">
+      <c r="A198" s="81" t="s">
         <v>448</v>
       </c>
-      <c r="B197" s="62"/>
-      <c r="C197" s="19"/>
-      <c r="E197" s="32">
+      <c r="C198" s="19">
         <v>1</v>
       </c>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H197" s="31"/>
-      <c r="I197" s="32"/>
-      <c r="J197" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K197" s="36"/>
-    </row>
-    <row r="198" spans="1:12" ht="12.5" hidden="1">
-      <c r="A198" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="B198" s="62"/>
-      <c r="C198" s="19">
-        <v>3</v>
-      </c>
       <c r="E198" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F198" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G198" s="31"/>
       <c r="H198" s="31"/>
-      <c r="I198" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I198" s="31"/>
       <c r="J198" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="K198" s="36"/>
-    </row>
-    <row r="199" spans="1:12" ht="12.5" hidden="1">
-      <c r="A199" s="81" t="s">
-        <v>450</v>
-      </c>
+    </row>
+    <row r="199" spans="1:12" ht="12.5">
+      <c r="A199" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B199" s="48"/>
       <c r="C199" s="19">
         <v>1</v>
       </c>
@@ -75825,52 +75825,54 @@
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
       <c r="J199" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="12.5" hidden="1">
-      <c r="A200" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="B200" s="48"/>
-      <c r="C200" s="19">
-        <v>1</v>
-      </c>
-      <c r="E200" s="32">
-        <v>1</v>
-      </c>
-      <c r="F200" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K199" s="36"/>
+    </row>
+    <row r="200" spans="1:12" ht="12.5">
+      <c r="A200" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="E200" s="31"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G200" s="31"/>
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
       <c r="J200" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K200" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="K200" s="19" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="201" spans="1:12" ht="12.5">
       <c r="A201" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="E201" s="31"/>
-      <c r="F201" s="31"/>
-      <c r="G201" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E201" s="32">
+        <v>1</v>
+      </c>
+      <c r="F201" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G201" s="31"/>
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
       <c r="J201" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="K201" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="12.5" hidden="1">
-      <c r="A202" s="19" t="s">
-        <v>452</v>
+    </row>
+    <row r="202" spans="1:12" ht="12.5">
+      <c r="A202" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="B202" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C202" s="19">
+        <v>1</v>
       </c>
       <c r="E202" s="32">
         <v>1</v>
@@ -75882,22 +75884,24 @@
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
       <c r="J202" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="12.5" hidden="1">
-      <c r="A203" s="63" t="s">
-        <v>453</v>
+        <v>213</v>
+      </c>
+      <c r="K202" s="36"/>
+    </row>
+    <row r="203" spans="1:12" ht="12.5">
+      <c r="A203" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C203" s="19">
         <v>1</v>
       </c>
-      <c r="E203" s="32">
+      <c r="D203" s="19">
         <v>1</v>
       </c>
+      <c r="E203" s="31"/>
       <c r="F203" s="32" t="s">
         <v>32</v>
       </c>
@@ -75907,60 +75911,62 @@
       <c r="J203" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="K203" s="36"/>
     </row>
     <row r="204" spans="1:12" ht="12.5">
-      <c r="A204" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B204" s="48" t="s">
-        <v>194</v>
-      </c>
+      <c r="A204" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204" s="62"/>
       <c r="C204" s="19">
         <v>1</v>
       </c>
-      <c r="D204" s="19">
+      <c r="E204" s="32">
         <v>1</v>
       </c>
-      <c r="E204" s="31"/>
-      <c r="F204" s="32" t="s">
+      <c r="F204" s="31"/>
+      <c r="G204" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G204" s="31"/>
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
       <c r="J204" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="12.5" hidden="1">
-      <c r="A205" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="K204" s="36"/>
+      <c r="L204" s="50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="12.5">
+      <c r="A205" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="B205" s="62"/>
-      <c r="C205" s="19">
-        <v>1</v>
-      </c>
       <c r="E205" s="32">
-        <v>1</v>
-      </c>
-      <c r="F205" s="31"/>
-      <c r="G205" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F205" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G205" s="31"/>
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
       <c r="J205" s="19" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K205" s="36"/>
-      <c r="L205" s="50" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="12.5" hidden="1">
+    </row>
+    <row r="206" spans="1:12" ht="12.5">
       <c r="A206" s="46" t="s">
-        <v>457</v>
+        <v>227</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C206" s="19">
+        <v>3</v>
+      </c>
+      <c r="D206" s="19">
+        <v>0</v>
       </c>
       <c r="E206" s="32">
         <v>2</v>
@@ -75972,25 +75978,15 @@
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
       <c r="J206" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K206" s="36"/>
-    </row>
-    <row r="207" spans="1:12" ht="12.5" hidden="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="12.5">
       <c r="A207" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C207" s="19">
-        <v>3</v>
-      </c>
-      <c r="D207" s="19">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E207" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207" s="32" t="s">
         <v>32</v>
@@ -76001,13 +75997,14 @@
       <c r="J207" s="19" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="12.5" hidden="1">
+      <c r="K207" s="36"/>
+    </row>
+    <row r="208" spans="1:12" ht="12.5">
       <c r="A208" s="46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E208" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F208" s="32" t="s">
         <v>32</v>
@@ -76020,12 +76017,12 @@
       </c>
       <c r="K208" s="36"/>
     </row>
-    <row r="209" spans="1:12" ht="12.5" hidden="1">
+    <row r="209" spans="1:12" ht="12.5">
       <c r="A209" s="46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E209" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F209" s="32" t="s">
         <v>32</v>
@@ -76036,14 +76033,16 @@
       <c r="J209" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="K209" s="36"/>
-    </row>
-    <row r="210" spans="1:12" ht="12.5" hidden="1">
+    </row>
+    <row r="210" spans="1:12" ht="12.5">
       <c r="A210" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="C210" s="19">
+        <v>2</v>
       </c>
       <c r="E210" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F210" s="32" t="s">
         <v>32</v>
@@ -76052,15 +76051,13 @@
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
       <c r="J210" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="12.5" hidden="1">
+        <v>262</v>
+      </c>
+      <c r="K210" s="36"/>
+    </row>
+    <row r="211" spans="1:12" ht="12.5">
       <c r="A211" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="C211" s="19">
-        <v>2</v>
+        <v>460</v>
       </c>
       <c r="E211" s="32">
         <v>2</v>
@@ -76072,16 +76069,16 @@
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
       <c r="J211" s="19" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="K211" s="36"/>
     </row>
-    <row r="212" spans="1:12" ht="12.5" hidden="1">
+    <row r="212" spans="1:12" ht="12.5">
       <c r="A212" s="46" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E212" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212" s="32" t="s">
         <v>32</v>
@@ -76094,9 +76091,9 @@
       </c>
       <c r="K212" s="36"/>
     </row>
-    <row r="213" spans="1:12" ht="12.5" hidden="1">
+    <row r="213" spans="1:12" ht="12.5">
       <c r="A213" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E213" s="32">
         <v>1</v>
@@ -76112,80 +76109,87 @@
       </c>
       <c r="K213" s="36"/>
     </row>
-    <row r="214" spans="1:12" ht="12.5" hidden="1">
-      <c r="A214" s="46" t="s">
-        <v>463</v>
-      </c>
-      <c r="E214" s="32">
+    <row r="214" spans="1:12" ht="12.5">
+      <c r="A214" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D214" s="19">
         <v>1</v>
       </c>
-      <c r="F214" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E214" s="31"/>
+      <c r="F214" s="31"/>
       <c r="G214" s="31"/>
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
-      <c r="J214" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K214" s="36"/>
+      <c r="J214" s="36"/>
     </row>
     <row r="215" spans="1:12" ht="12.5">
-      <c r="A215" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="B215" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D215" s="19">
+      <c r="A215" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="E215" s="32">
         <v>1</v>
       </c>
-      <c r="E215" s="31"/>
-      <c r="F215" s="31"/>
+      <c r="F215" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G215" s="31"/>
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
-      <c r="J215" s="36"/>
-    </row>
-    <row r="216" spans="1:12" ht="12.5" hidden="1">
-      <c r="A216" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="E216" s="32">
-        <v>1</v>
-      </c>
-      <c r="F216" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="J215" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K215" s="36"/>
+    </row>
+    <row r="216" spans="1:12" ht="12.5">
+      <c r="A216" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D216" s="19">
+        <v>0</v>
+      </c>
+      <c r="E216" s="31"/>
+      <c r="F216" s="31"/>
       <c r="G216" s="31"/>
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
-      <c r="J216" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K216" s="36"/>
+      <c r="J216" s="36"/>
     </row>
     <row r="217" spans="1:12" ht="12.5">
-      <c r="A217" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D217" s="19">
-        <v>0</v>
-      </c>
-      <c r="E217" s="31"/>
-      <c r="F217" s="31"/>
+      <c r="A217" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E217" s="32">
+        <v>1</v>
+      </c>
+      <c r="F217" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G217" s="31"/>
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
-      <c r="J217" s="36"/>
-    </row>
-    <row r="218" spans="1:12" ht="12.5" hidden="1">
+      <c r="J217" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K217" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="12.5">
       <c r="A218" s="46" t="s">
-        <v>466</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B218" s="48"/>
+      <c r="C218" s="19">
+        <v>1</v>
+      </c>
+      <c r="D218" s="19"/>
       <c r="E218" s="32">
         <v>1</v>
       </c>
@@ -76196,41 +76200,46 @@
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
       <c r="J218" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K218" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="12.5" hidden="1">
+        <v>218</v>
+      </c>
+      <c r="K218" s="36"/>
+    </row>
+    <row r="219" spans="1:12" ht="12.5">
       <c r="A219" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="B219" s="48"/>
-      <c r="C219" s="19">
-        <v>1</v>
-      </c>
-      <c r="D219" s="19"/>
+        <v>466</v>
+      </c>
       <c r="E219" s="32">
-        <v>1</v>
-      </c>
-      <c r="F219" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G219" s="31"/>
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
       <c r="J219" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K219" s="36"/>
-    </row>
-    <row r="220" spans="1:12" ht="12.5" hidden="1">
+        <v>202</v>
+      </c>
+      <c r="K219" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L219" s="50" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="12.5">
       <c r="A220" s="46" t="s">
         <v>468</v>
       </c>
+      <c r="B220" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19">
+        <v>1</v>
+      </c>
       <c r="E220" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F220" s="32"/>
       <c r="G220" s="32" t="s">
@@ -76244,46 +76253,33 @@
       <c r="K220" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="L220" s="50" t="s">
+      <c r="L220" s="55" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="12.5">
+      <c r="A221" s="75" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" ht="12.5" hidden="1">
-      <c r="A221" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="B221" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C221" s="19"/>
+      <c r="B221" s="19" t="s">
+        <v>278</v>
+      </c>
       <c r="D221" s="19">
-        <v>1</v>
-      </c>
-      <c r="E221" s="32">
-        <v>1</v>
-      </c>
-      <c r="F221" s="32"/>
-      <c r="G221" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31"/>
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
-      <c r="J221" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K221" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="L221" s="55" t="s">
-        <v>469</v>
-      </c>
+      <c r="J221" s="36"/>
     </row>
     <row r="222" spans="1:12" ht="12.5">
-      <c r="A222" s="75" t="s">
-        <v>471</v>
+      <c r="A222" s="49" t="s">
+        <v>643</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D222" s="19">
         <v>0</v>
@@ -76296,147 +76292,151 @@
       <c r="J222" s="36"/>
     </row>
     <row r="223" spans="1:12" ht="12.5">
-      <c r="A223" s="49" t="s">
-        <v>645</v>
-      </c>
-      <c r="B223" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D223" s="19">
-        <v>0</v>
-      </c>
-      <c r="E223" s="31"/>
-      <c r="F223" s="31"/>
+      <c r="A223" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="B223" s="48"/>
+      <c r="C223" s="19">
+        <v>1</v>
+      </c>
+      <c r="D223" s="19"/>
+      <c r="E223" s="32">
+        <v>1</v>
+      </c>
+      <c r="F223" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G223" s="31"/>
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
-      <c r="J223" s="36"/>
-    </row>
-    <row r="224" spans="1:12" ht="12.5" hidden="1">
-      <c r="A224" s="46" t="s">
-        <v>472</v>
-      </c>
-      <c r="B224" s="48"/>
-      <c r="C224" s="19">
-        <v>1</v>
-      </c>
-      <c r="D224" s="19"/>
-      <c r="E224" s="32">
-        <v>1</v>
-      </c>
-      <c r="F224" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="J223" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K223" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="12.5">
+      <c r="A224" s="105" t="s">
+        <v>471</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D224" s="19">
+        <v>0</v>
+      </c>
+      <c r="E224" s="31"/>
+      <c r="F224" s="31"/>
       <c r="G224" s="31"/>
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
-      <c r="J224" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K224" s="19" t="s">
-        <v>258</v>
-      </c>
+      <c r="J224" s="36"/>
     </row>
     <row r="225" spans="1:12" ht="12.5">
-      <c r="A225" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="B225" s="19" t="s">
-        <v>88</v>
+      <c r="A225" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="B225" s="48" t="s">
+        <v>200</v>
       </c>
       <c r="D225" s="19">
-        <v>0</v>
-      </c>
-      <c r="E225" s="31"/>
-      <c r="F225" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="E225" s="32">
+        <v>1</v>
+      </c>
+      <c r="F225" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G225" s="31"/>
       <c r="H225" s="31"/>
       <c r="I225" s="31"/>
-      <c r="J225" s="36"/>
-    </row>
-    <row r="226" spans="1:12" ht="12.5" hidden="1">
-      <c r="A226" s="49" t="s">
-        <v>635</v>
+      <c r="J225" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K225" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="12.5">
+      <c r="A226" s="56" t="s">
+        <v>472</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D226" s="19">
         <v>1</v>
       </c>
-      <c r="E226" s="32">
-        <v>1</v>
-      </c>
-      <c r="F226" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E226" s="31"/>
+      <c r="F226" s="31"/>
       <c r="G226" s="31"/>
       <c r="H226" s="31"/>
       <c r="I226" s="31"/>
-      <c r="J226" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K226" s="19" t="s">
+      <c r="J226" s="36"/>
+    </row>
+    <row r="227" spans="1:12" ht="12.5">
+      <c r="A227" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="C227" s="19">
+        <v>2</v>
+      </c>
+      <c r="E227" s="32">
+        <v>2</v>
+      </c>
+      <c r="F227" s="31"/>
+      <c r="G227" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H227" s="31"/>
+      <c r="I227" s="32"/>
+      <c r="J227" s="19" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" ht="12.5">
-      <c r="A227" s="56" t="s">
+      <c r="K227" s="36"/>
+      <c r="L227" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B227" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D227" s="19">
-        <v>1</v>
-      </c>
-      <c r="E227" s="31"/>
-      <c r="F227" s="31"/>
-      <c r="G227" s="31"/>
-      <c r="H227" s="31"/>
-      <c r="I227" s="31"/>
-      <c r="J227" s="36"/>
-    </row>
-    <row r="228" spans="1:12" ht="12.5" hidden="1">
+    </row>
+    <row r="228" spans="1:12" ht="12.5">
       <c r="A228" s="46" t="s">
         <v>475</v>
       </c>
+      <c r="B228" s="48" t="s">
+        <v>194</v>
+      </c>
       <c r="C228" s="19">
+        <v>1</v>
+      </c>
+      <c r="D228" s="19">
         <v>2</v>
       </c>
       <c r="E228" s="32">
         <v>2</v>
       </c>
-      <c r="F228" s="31"/>
-      <c r="G228" s="32" t="s">
+      <c r="F228" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G228" s="31"/>
       <c r="H228" s="31"/>
-      <c r="I228" s="32"/>
+      <c r="I228" s="31"/>
       <c r="J228" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K228" s="36"/>
-      <c r="L228" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="K228" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="12.5">
+      <c r="A229" s="19" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" ht="12.5" hidden="1">
-      <c r="A229" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="B229" s="48" t="s">
-        <v>194</v>
-      </c>
       <c r="C229" s="19">
-        <v>1</v>
-      </c>
-      <c r="D229" s="19">
         <v>2</v>
       </c>
-      <c r="E229" s="32">
-        <v>2</v>
-      </c>
+      <c r="E229" s="31"/>
       <c r="F229" s="32" t="s">
         <v>32</v>
       </c>
@@ -76444,94 +76444,87 @@
       <c r="H229" s="31"/>
       <c r="I229" s="31"/>
       <c r="J229" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K229" s="19" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="12.5">
-      <c r="A230" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="C230" s="19">
-        <v>2</v>
+      <c r="A230" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="D230" s="19">
+        <v>1</v>
       </c>
       <c r="E230" s="31"/>
-      <c r="F230" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="F230" s="31"/>
       <c r="G230" s="31"/>
       <c r="H230" s="31"/>
       <c r="I230" s="31"/>
-      <c r="J230" s="19" t="s">
-        <v>247</v>
-      </c>
+      <c r="J230" s="36"/>
     </row>
     <row r="231" spans="1:12" ht="12.5">
-      <c r="A231" s="79" t="s">
-        <v>479</v>
-      </c>
-      <c r="D231" s="19">
+      <c r="A231" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="E231" s="32">
         <v>1</v>
       </c>
-      <c r="E231" s="31"/>
-      <c r="F231" s="31"/>
+      <c r="F231" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
-      <c r="I231" s="31"/>
-      <c r="J231" s="36"/>
-    </row>
-    <row r="232" spans="1:12" ht="12.5" hidden="1">
+      <c r="I231" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J231" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K231" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="12.5">
       <c r="A232" s="46" t="s">
-        <v>480</v>
+        <v>479</v>
+      </c>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19">
+        <v>1</v>
       </c>
       <c r="E232" s="32">
         <v>1</v>
       </c>
-      <c r="F232" s="32" t="s">
+      <c r="F232" s="31"/>
+      <c r="G232" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G232" s="31"/>
       <c r="H232" s="31"/>
-      <c r="I232" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I232" s="31"/>
       <c r="J232" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K232" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="12.5" hidden="1">
-      <c r="A233" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="K232" s="36"/>
+      <c r="L232" s="50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="12.5">
+      <c r="A233" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19">
+      <c r="D233" s="19">
         <v>1</v>
       </c>
-      <c r="E233" s="32">
-        <v>1</v>
-      </c>
+      <c r="E233" s="31"/>
       <c r="F233" s="31"/>
-      <c r="G233" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G233" s="31"/>
       <c r="H233" s="31"/>
       <c r="I233" s="31"/>
-      <c r="J233" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K233" s="36"/>
-      <c r="L233" s="50" t="s">
-        <v>482</v>
-      </c>
+      <c r="J233" s="36"/>
     </row>
     <row r="234" spans="1:12" ht="12.5">
       <c r="A234" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D234" s="19">
         <v>1</v>
@@ -76545,7 +76538,10 @@
     </row>
     <row r="235" spans="1:12" ht="12.5">
       <c r="A235" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
+      </c>
+      <c r="B235" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D235" s="19">
         <v>1</v>
@@ -76558,25 +76554,34 @@
       <c r="J235" s="36"/>
     </row>
     <row r="236" spans="1:12" ht="12.5">
-      <c r="A236" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B236" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D236" s="19">
+      <c r="A236" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="E236" s="32">
         <v>1</v>
       </c>
-      <c r="E236" s="31"/>
-      <c r="F236" s="31"/>
+      <c r="F236" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G236" s="31"/>
       <c r="H236" s="31"/>
       <c r="I236" s="31"/>
-      <c r="J236" s="36"/>
-    </row>
-    <row r="237" spans="1:12" ht="12.5" hidden="1">
+      <c r="J236" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K236" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="12.5">
       <c r="A237" s="46" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C237" s="19">
+        <v>1</v>
       </c>
       <c r="E237" s="32">
         <v>1</v>
@@ -76590,18 +76595,15 @@
       <c r="J237" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K237" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="12.5" hidden="1">
+    </row>
+    <row r="238" spans="1:12" ht="12.5">
       <c r="A238" s="46" t="s">
-        <v>487</v>
+        <v>234</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C238" s="19">
+        <v>278</v>
+      </c>
+      <c r="D238" s="19">
         <v>1</v>
       </c>
       <c r="E238" s="32">
@@ -76614,17 +76616,17 @@
       <c r="H238" s="31"/>
       <c r="I238" s="31"/>
       <c r="J238" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="12.5" hidden="1">
-      <c r="A239" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D239" s="19">
+        <v>247</v>
+      </c>
+      <c r="K238" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="12.5">
+      <c r="A239" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C239" s="19">
         <v>1</v>
       </c>
       <c r="E239" s="32">
@@ -76637,62 +76639,57 @@
       <c r="H239" s="31"/>
       <c r="I239" s="31"/>
       <c r="J239" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K239" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" ht="12.5" hidden="1">
-      <c r="A240" s="19" t="s">
-        <v>488</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="12.5">
+      <c r="A240" s="105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B240" s="48"/>
       <c r="C240" s="19">
         <v>1</v>
       </c>
-      <c r="E240" s="32">
+      <c r="D240" s="19">
         <v>1</v>
       </c>
+      <c r="E240" s="32"/>
       <c r="F240" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G240" s="31"/>
       <c r="H240" s="31"/>
-      <c r="I240" s="31"/>
+      <c r="I240" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J240" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K240" s="19" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="12.5">
-      <c r="A241" s="105" t="s">
-        <v>489</v>
-      </c>
-      <c r="B241" s="48"/>
-      <c r="C241" s="19">
+      <c r="A241" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="E241" s="32">
         <v>1</v>
       </c>
-      <c r="D241" s="19">
-        <v>1</v>
-      </c>
-      <c r="E241" s="32"/>
       <c r="F241" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G241" s="31"/>
       <c r="H241" s="31"/>
-      <c r="I241" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I241" s="31"/>
       <c r="J241" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" ht="12.5" hidden="1">
-      <c r="A242" s="46" t="s">
-        <v>490</v>
+        <v>195</v>
+      </c>
+      <c r="K241" s="36"/>
+    </row>
+    <row r="242" spans="1:12" ht="12.5">
+      <c r="A242" s="19" t="s">
+        <v>489</v>
       </c>
       <c r="E242" s="32">
         <v>1</v>
@@ -76704,60 +76701,59 @@
       <c r="H242" s="31"/>
       <c r="I242" s="31"/>
       <c r="J242" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K242" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K242" s="36"/>
-    </row>
-    <row r="243" spans="1:12" ht="12.5" hidden="1">
-      <c r="A243" s="19" t="s">
-        <v>491</v>
+    </row>
+    <row r="243" spans="1:12" ht="12.5">
+      <c r="A243" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="B243" s="48"/>
+      <c r="C243" s="19">
+        <v>3</v>
       </c>
       <c r="E243" s="32">
-        <v>1</v>
-      </c>
-      <c r="F243" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F243" s="31"/>
+      <c r="G243" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G243" s="31"/>
       <c r="H243" s="31"/>
       <c r="I243" s="31"/>
       <c r="J243" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K243" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="12.5" hidden="1">
-      <c r="A244" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="L243" s="50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="12.5">
+      <c r="A244" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="B244" s="48"/>
-      <c r="C244" s="19">
-        <v>3</v>
-      </c>
-      <c r="E244" s="32">
-        <v>4</v>
-      </c>
+      <c r="B244" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D244" s="19">
+        <v>1</v>
+      </c>
+      <c r="E244" s="31"/>
       <c r="F244" s="31"/>
-      <c r="G244" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G244" s="31"/>
       <c r="H244" s="31"/>
       <c r="I244" s="31"/>
-      <c r="J244" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K244" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="L244" s="50" t="s">
+      <c r="J244" s="36"/>
+    </row>
+    <row r="245" spans="1:12" ht="12.5">
+      <c r="A245" s="19" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" ht="12.5">
-      <c r="A245" s="61" t="s">
-        <v>494</v>
       </c>
       <c r="B245" s="48" t="s">
         <v>194</v>
@@ -76773,11 +76769,12 @@
       <c r="J245" s="36"/>
     </row>
     <row r="246" spans="1:12" ht="12.5">
-      <c r="A246" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="B246" s="48" t="s">
-        <v>194</v>
+      <c r="A246" s="84" t="e">
+        <f>HYPERLINK("https://www.amazon.com/Peacable-Kingdom-Race-Treasure-Game/dp/B006S9MUPU/ref=sr_1_1_sspa?keywords=race+to+the+treasure&amp;qid=1571107436&amp;sr=8-1-spons&amp;psc=1&amp;smid=A1B7M9EQGNCLQA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRkw1QU0xSVUzTU0mZW5jcnlwdGVkSWQ9QTA2Mzk0MTYyV01FS"&amp;"zM0VktRRFpUJmVuY3J5cHRlZEFkSWQ9QTA2MDM3NTAxN0ZRT0czS0RaODgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl","Race to the Treasure!")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="D246" s="19">
         <v>1</v>
@@ -76790,12 +76787,11 @@
       <c r="J246" s="36"/>
     </row>
     <row r="247" spans="1:12" ht="12.5">
-      <c r="A247" s="84" t="e">
-        <f>HYPERLINK("https://www.amazon.com/Peacable-Kingdom-Race-Treasure-Game/dp/B006S9MUPU/ref=sr_1_1_sspa?keywords=race+to+the+treasure&amp;qid=1571107436&amp;sr=8-1-spons&amp;psc=1&amp;smid=A1B7M9EQGNCLQA&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRkw1QU0xSVUzTU0mZW5jcnlwdGVkSWQ9QTA2Mzk0MTYyV01FS"&amp;"zM0VktRRFpUJmVuY3J5cHRlZEFkSWQ9QTA2MDM3NTAxN0ZRT0czS0RaODgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl","Race to the Treasure!")</f>
-        <v>#VALUE!</v>
+      <c r="A247" s="19" t="s">
+        <v>494</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="D247" s="19">
         <v>1</v>
@@ -76808,142 +76804,143 @@
       <c r="J247" s="36"/>
     </row>
     <row r="248" spans="1:12" ht="12.5">
-      <c r="A248" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B248" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D248" s="19">
+      <c r="A248" s="85" t="s">
+        <v>495</v>
+      </c>
+      <c r="C248" s="19">
         <v>1</v>
       </c>
-      <c r="E248" s="31"/>
-      <c r="F248" s="31"/>
+      <c r="E248" s="32">
+        <v>1</v>
+      </c>
+      <c r="F248" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G248" s="31"/>
       <c r="H248" s="31"/>
       <c r="I248" s="31"/>
-      <c r="J248" s="36"/>
-    </row>
-    <row r="249" spans="1:12" ht="12.5" hidden="1">
-      <c r="A249" s="85" t="s">
-        <v>497</v>
-      </c>
-      <c r="C249" s="19">
-        <v>1</v>
-      </c>
-      <c r="E249" s="32">
-        <v>1</v>
-      </c>
-      <c r="F249" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="J248" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="12.5">
+      <c r="A249" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E249" s="31"/>
+      <c r="F249" s="31"/>
       <c r="G249" s="31"/>
       <c r="H249" s="31"/>
       <c r="I249" s="31"/>
-      <c r="J249" s="19" t="s">
-        <v>253</v>
-      </c>
+      <c r="J249" s="36"/>
     </row>
     <row r="250" spans="1:12" ht="12.5">
-      <c r="A250" s="74" t="s">
-        <v>498</v>
-      </c>
-      <c r="B250" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E250" s="31"/>
+      <c r="A250" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="E250" s="32">
+        <v>1</v>
+      </c>
       <c r="F250" s="31"/>
-      <c r="G250" s="31"/>
+      <c r="G250" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="H250" s="31"/>
       <c r="I250" s="31"/>
-      <c r="J250" s="36"/>
-    </row>
-    <row r="251" spans="1:12" ht="12.5" hidden="1">
-      <c r="A251" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="E251" s="32">
-        <v>1</v>
-      </c>
-      <c r="F251" s="31"/>
-      <c r="G251" s="32" t="s">
+      <c r="J250" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K250" s="36"/>
+    </row>
+    <row r="251" spans="1:12" ht="12.5">
+      <c r="A251" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E251" s="31"/>
+      <c r="F251" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G251" s="31"/>
       <c r="H251" s="31"/>
       <c r="I251" s="31"/>
       <c r="J251" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K251" s="36"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="252" spans="1:12" ht="12.5">
-      <c r="A252" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="E252" s="31"/>
-      <c r="F252" s="32" t="s">
+      <c r="A252" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="E252" s="32">
+        <v>1</v>
+      </c>
+      <c r="F252" s="31"/>
+      <c r="G252" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G252" s="31"/>
       <c r="H252" s="31"/>
       <c r="I252" s="31"/>
       <c r="J252" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" ht="12.5" hidden="1">
+        <v>198</v>
+      </c>
+      <c r="K252" s="36"/>
+    </row>
+    <row r="253" spans="1:12" ht="12.5">
       <c r="A253" s="46" t="s">
-        <v>501</v>
+        <v>235</v>
       </c>
       <c r="E253" s="32">
         <v>1</v>
       </c>
-      <c r="F253" s="31"/>
-      <c r="G253" s="32" t="s">
+      <c r="F253" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G253" s="31"/>
       <c r="H253" s="31"/>
       <c r="I253" s="31"/>
       <c r="J253" s="19" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="K253" s="36"/>
     </row>
-    <row r="254" spans="1:12" ht="12.5" hidden="1">
-      <c r="A254" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E254" s="32">
+    <row r="254" spans="1:12" ht="12.5">
+      <c r="A254" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="D254" s="19">
         <v>1</v>
       </c>
-      <c r="F254" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E254" s="31"/>
+      <c r="F254" s="31"/>
       <c r="G254" s="31"/>
       <c r="H254" s="31"/>
       <c r="I254" s="31"/>
-      <c r="J254" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K254" s="36"/>
+      <c r="J254" s="36"/>
     </row>
     <row r="255" spans="1:12" ht="12.5">
-      <c r="A255" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="D255" s="19">
+      <c r="A255" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="E255" s="32">
         <v>1</v>
       </c>
-      <c r="E255" s="31"/>
-      <c r="F255" s="31"/>
+      <c r="F255" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G255" s="31"/>
       <c r="H255" s="31"/>
       <c r="I255" s="31"/>
-      <c r="J255" s="36"/>
-    </row>
-    <row r="256" spans="1:12" ht="12.5" hidden="1">
+      <c r="J255" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K255" s="36"/>
+    </row>
+    <row r="256" spans="1:12" ht="12.5">
       <c r="A256" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E256" s="32">
         <v>1</v>
@@ -76955,133 +76952,141 @@
       <c r="H256" s="31"/>
       <c r="I256" s="31"/>
       <c r="J256" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K256" s="36"/>
     </row>
-    <row r="257" spans="1:12" ht="12.5" hidden="1">
+    <row r="257" spans="1:12" ht="12.5">
       <c r="A257" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C257" s="19">
+        <v>1</v>
       </c>
       <c r="E257" s="32">
         <v>1</v>
       </c>
-      <c r="F257" s="32" t="s">
+      <c r="F257" s="31"/>
+      <c r="G257" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G257" s="31"/>
       <c r="H257" s="31"/>
-      <c r="I257" s="31"/>
+      <c r="I257" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J257" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="K257" s="36"/>
-    </row>
-    <row r="258" spans="1:12" ht="12.5" hidden="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="12.5">
       <c r="A258" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="C258" s="19">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="E258" s="32">
         <v>1</v>
       </c>
-      <c r="F258" s="31"/>
-      <c r="G258" s="32" t="s">
+      <c r="F258" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G258" s="31"/>
       <c r="H258" s="31"/>
-      <c r="I258" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I258" s="31"/>
       <c r="J258" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="12.5" hidden="1">
+        <v>213</v>
+      </c>
+      <c r="K258" s="36"/>
+    </row>
+    <row r="259" spans="1:12" ht="12.5">
       <c r="A259" s="46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E259" s="32">
         <v>1</v>
       </c>
-      <c r="F259" s="32" t="s">
+      <c r="F259" s="31"/>
+      <c r="G259" s="32"/>
+      <c r="H259" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G259" s="31"/>
-      <c r="H259" s="31"/>
       <c r="I259" s="31"/>
       <c r="J259" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K259" s="36"/>
-    </row>
-    <row r="260" spans="1:12" ht="12.5" hidden="1">
+        <v>202</v>
+      </c>
+      <c r="K259" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L259" s="55" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="12.5">
       <c r="A260" s="46" t="s">
         <v>506</v>
       </c>
       <c r="E260" s="32">
         <v>1</v>
       </c>
-      <c r="F260" s="31"/>
-      <c r="G260" s="32"/>
-      <c r="H260" s="32" t="s">
+      <c r="F260" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G260" s="31"/>
+      <c r="H260" s="31"/>
       <c r="I260" s="31"/>
       <c r="J260" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K260" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="L260" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="K260" s="36"/>
+    </row>
+    <row r="261" spans="1:12" ht="12.5">
+      <c r="A261" s="19" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" ht="12.5" hidden="1">
-      <c r="A261" s="46" t="s">
-        <v>508</v>
-      </c>
-      <c r="E261" s="32">
-        <v>1</v>
-      </c>
-      <c r="F261" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B261" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D261" s="19">
+        <v>0</v>
+      </c>
+      <c r="E261" s="31"/>
+      <c r="F261" s="31"/>
       <c r="G261" s="31"/>
       <c r="H261" s="31"/>
       <c r="I261" s="31"/>
-      <c r="J261" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K261" s="36"/>
+      <c r="J261" s="36"/>
     </row>
     <row r="262" spans="1:12" ht="12.5">
-      <c r="A262" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D262" s="19">
-        <v>0</v>
-      </c>
-      <c r="E262" s="31"/>
-      <c r="F262" s="31"/>
+      <c r="A262" s="105" t="s">
+        <v>508</v>
+      </c>
+      <c r="B262" s="48"/>
+      <c r="C262" s="19">
+        <v>1</v>
+      </c>
+      <c r="E262" s="32">
+        <v>1</v>
+      </c>
+      <c r="F262" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G262" s="31"/>
       <c r="H262" s="31"/>
-      <c r="I262" s="31"/>
-      <c r="J262" s="36"/>
-    </row>
-    <row r="263" spans="1:12" ht="12.5" hidden="1">
-      <c r="A263" s="105" t="s">
-        <v>510</v>
-      </c>
-      <c r="B263" s="48"/>
-      <c r="C263" s="19">
-        <v>1</v>
+      <c r="I262" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J262" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K262" s="36"/>
+    </row>
+    <row r="263" spans="1:12" ht="12.5">
+      <c r="A263" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D263" s="19">
+        <v>0</v>
       </c>
       <c r="E263" s="32">
         <v>1</v>
@@ -77099,41 +77104,30 @@
       </c>
       <c r="K263" s="36"/>
     </row>
-    <row r="264" spans="1:12" ht="12.5" hidden="1">
-      <c r="A264" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="B264" s="19" t="s">
-        <v>208</v>
+    <row r="264" spans="1:12" ht="12.5">
+      <c r="A264" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="B264" s="62" t="s">
+        <v>270</v>
       </c>
       <c r="D264" s="19">
-        <v>0</v>
-      </c>
-      <c r="E264" s="32">
         <v>1</v>
       </c>
-      <c r="F264" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E264" s="31"/>
+      <c r="F264" s="31"/>
       <c r="G264" s="31"/>
       <c r="H264" s="31"/>
-      <c r="I264" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J264" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K264" s="36"/>
+      <c r="I264" s="31"/>
+      <c r="J264" s="36"/>
     </row>
     <row r="265" spans="1:12" ht="12.5">
-      <c r="A265" s="61" t="s">
-        <v>512</v>
-      </c>
-      <c r="B265" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D265" s="19">
-        <v>1</v>
+      <c r="A265" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B265" s="62"/>
+      <c r="D265" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="E265" s="31"/>
       <c r="F265" s="31"/>
@@ -77143,27 +77137,38 @@
       <c r="J265" s="36"/>
     </row>
     <row r="266" spans="1:12" ht="12.5">
-      <c r="A266" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="B266" s="62"/>
-      <c r="D266" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E266" s="31"/>
-      <c r="F266" s="31"/>
+      <c r="A266" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="B266" s="48"/>
+      <c r="C266" s="19">
+        <v>1</v>
+      </c>
+      <c r="D266" s="19">
+        <v>1</v>
+      </c>
+      <c r="E266" s="32">
+        <v>1</v>
+      </c>
+      <c r="F266" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G266" s="31"/>
       <c r="H266" s="31"/>
-      <c r="I266" s="31"/>
-      <c r="J266" s="36"/>
-    </row>
-    <row r="267" spans="1:12" ht="12.5" hidden="1">
-      <c r="A267" s="105" t="s">
-        <v>514</v>
-      </c>
-      <c r="B267" s="48"/>
-      <c r="C267" s="19">
-        <v>1</v>
+      <c r="I266" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J266" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K266" s="36"/>
+    </row>
+    <row r="267" spans="1:12" ht="12.5">
+      <c r="A267" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="B267" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D267" s="19">
         <v>1</v>
@@ -77176,46 +77181,37 @@
       </c>
       <c r="G267" s="31"/>
       <c r="H267" s="31"/>
-      <c r="I267" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I267" s="31"/>
       <c r="J267" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K267" s="36"/>
-    </row>
-    <row r="268" spans="1:12" ht="12.5" hidden="1">
-      <c r="A268" s="68" t="s">
-        <v>515</v>
-      </c>
-      <c r="B268" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D268" s="19">
-        <v>1</v>
-      </c>
-      <c r="E268" s="32">
-        <v>1</v>
-      </c>
-      <c r="F268" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K267" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="12.5">
+      <c r="A268" s="74" t="s">
+        <v>514</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E268" s="31"/>
+      <c r="F268" s="31"/>
       <c r="G268" s="31"/>
       <c r="H268" s="31"/>
       <c r="I268" s="31"/>
-      <c r="J268" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K268" s="19" t="s">
-        <v>245</v>
-      </c>
+      <c r="J268" s="36"/>
     </row>
     <row r="269" spans="1:12" ht="12.5">
-      <c r="A269" s="74" t="s">
-        <v>516</v>
-      </c>
-      <c r="B269" s="19" t="s">
-        <v>88</v>
+      <c r="A269" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="B269" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D269" s="19">
+        <v>2</v>
       </c>
       <c r="E269" s="31"/>
       <c r="F269" s="31"/>
@@ -77225,14 +77221,14 @@
       <c r="J269" s="36"/>
     </row>
     <row r="270" spans="1:12" ht="12.5">
-      <c r="A270" s="49" t="s">
-        <v>643</v>
+      <c r="A270" s="56" t="s">
+        <v>515</v>
       </c>
       <c r="B270" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D270" s="19">
-        <v>2</v>
+        <v>194</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="E270" s="31"/>
       <c r="F270" s="31"/>
@@ -77242,31 +77238,34 @@
       <c r="J270" s="36"/>
     </row>
     <row r="271" spans="1:12" ht="12.5">
-      <c r="A271" s="56" t="s">
-        <v>517</v>
+      <c r="A271" s="68" t="s">
+        <v>516</v>
       </c>
       <c r="B271" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D271" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E271" s="31"/>
-      <c r="F271" s="31"/>
+      <c r="D271" s="19">
+        <v>1</v>
+      </c>
+      <c r="E271" s="32">
+        <v>1</v>
+      </c>
+      <c r="F271" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G271" s="31"/>
       <c r="H271" s="31"/>
       <c r="I271" s="31"/>
-      <c r="J271" s="36"/>
-    </row>
-    <row r="272" spans="1:12" ht="12.5" hidden="1">
-      <c r="A272" s="68" t="s">
-        <v>518</v>
-      </c>
-      <c r="B272" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D272" s="19">
-        <v>1</v>
+      <c r="J271" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K271" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="12.5">
+      <c r="A272" s="19" t="s">
+        <v>517</v>
       </c>
       <c r="E272" s="32">
         <v>1</v>
@@ -77280,13 +77279,13 @@
       <c r="J272" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="K272" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="12.5" hidden="1">
-      <c r="A273" s="19" t="s">
-        <v>519</v>
+    </row>
+    <row r="273" spans="1:12" ht="12.5">
+      <c r="A273" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="C273" s="19">
+        <v>1</v>
       </c>
       <c r="E273" s="32">
         <v>1</v>
@@ -77298,138 +77297,136 @@
       <c r="H273" s="31"/>
       <c r="I273" s="31"/>
       <c r="J273" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" ht="12.5" hidden="1">
-      <c r="A274" s="73" t="s">
-        <v>520</v>
-      </c>
-      <c r="C274" s="19">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="K273" s="36"/>
+    </row>
+    <row r="274" spans="1:12" ht="12.5">
+      <c r="A274" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B274" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D274" s="19">
+        <v>2</v>
       </c>
       <c r="E274" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F274" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G274" s="31"/>
+      <c r="G274" s="32"/>
       <c r="H274" s="31"/>
       <c r="I274" s="31"/>
       <c r="J274" s="19" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="K274" s="36"/>
     </row>
-    <row r="275" spans="1:12" ht="12.5" hidden="1">
+    <row r="275" spans="1:12" ht="12.5">
       <c r="A275" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B275" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D275" s="19">
-        <v>2</v>
+        <v>519</v>
       </c>
       <c r="E275" s="32">
-        <v>2</v>
-      </c>
-      <c r="F275" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F275" s="31"/>
+      <c r="G275" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G275" s="32"/>
       <c r="H275" s="31"/>
       <c r="I275" s="31"/>
       <c r="J275" s="19" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="K275" s="36"/>
-    </row>
-    <row r="276" spans="1:12" ht="12.5" hidden="1">
-      <c r="A276" s="46" t="s">
+      <c r="L275" s="50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="12.5">
+      <c r="A276" s="59" t="s">
         <v>521</v>
       </c>
       <c r="E276" s="32">
         <v>1</v>
       </c>
       <c r="F276" s="31"/>
-      <c r="G276" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G276" s="31"/>
       <c r="H276" s="31"/>
       <c r="I276" s="31"/>
-      <c r="J276" s="19" t="s">
-        <v>213</v>
-      </c>
+      <c r="J276" s="36"/>
       <c r="K276" s="36"/>
-      <c r="L276" s="50" t="s">
+    </row>
+    <row r="277" spans="1:12" ht="12.5">
+      <c r="A277" s="46" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" ht="12.5" hidden="1">
-      <c r="A277" s="59" t="s">
-        <v>523</v>
+      <c r="B277" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D277" s="19">
+        <v>2</v>
       </c>
       <c r="E277" s="32">
-        <v>1</v>
-      </c>
-      <c r="F277" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="F277" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G277" s="31"/>
       <c r="H277" s="31"/>
-      <c r="I277" s="31"/>
-      <c r="J277" s="36"/>
+      <c r="I277" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J277" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="K277" s="36"/>
     </row>
-    <row r="278" spans="1:12" ht="12.5" hidden="1">
-      <c r="A278" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="B278" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D278" s="19">
-        <v>2</v>
-      </c>
-      <c r="E278" s="32">
-        <v>2</v>
-      </c>
-      <c r="F278" s="32" t="s">
-        <v>32</v>
-      </c>
+    <row r="278" spans="1:12" ht="12.5">
+      <c r="A278" s="86" t="s">
+        <v>523</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E278" s="31"/>
+      <c r="F278" s="31"/>
       <c r="G278" s="31"/>
       <c r="H278" s="31"/>
-      <c r="I278" s="32" t="s">
+      <c r="I278" s="31"/>
+      <c r="J278" s="36"/>
+    </row>
+    <row r="279" spans="1:12" ht="12.5">
+      <c r="A279" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="B279" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D279" s="19">
+        <v>1</v>
+      </c>
+      <c r="E279" s="32">
+        <v>1</v>
+      </c>
+      <c r="F279" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J278" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K278" s="36"/>
-    </row>
-    <row r="279" spans="1:12" ht="12.5">
-      <c r="A279" s="86" t="s">
-        <v>525</v>
-      </c>
-      <c r="B279" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E279" s="31"/>
-      <c r="F279" s="31"/>
       <c r="G279" s="31"/>
       <c r="H279" s="31"/>
       <c r="I279" s="31"/>
-      <c r="J279" s="36"/>
-    </row>
-    <row r="280" spans="1:12" ht="12.5" hidden="1">
+      <c r="J279" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K279" s="36"/>
+    </row>
+    <row r="280" spans="1:12" ht="12.5">
       <c r="A280" s="46" t="s">
-        <v>526</v>
-      </c>
-      <c r="B280" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D280" s="19">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="E280" s="32">
         <v>1</v>
@@ -77441,16 +77438,25 @@
       <c r="H280" s="31"/>
       <c r="I280" s="31"/>
       <c r="J280" s="19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K280" s="36"/>
     </row>
-    <row r="281" spans="1:12" ht="12.5" hidden="1">
-      <c r="A281" s="46" t="s">
-        <v>527</v>
+    <row r="281" spans="1:12" ht="12.5">
+      <c r="A281" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B281" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C281" s="19">
+        <v>2</v>
+      </c>
+      <c r="D281" s="19">
+        <v>2</v>
       </c>
       <c r="E281" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F281" s="32" t="s">
         <v>32</v>
@@ -77459,194 +77465,184 @@
       <c r="H281" s="31"/>
       <c r="I281" s="31"/>
       <c r="J281" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K281" s="36"/>
-    </row>
-    <row r="282" spans="1:12" ht="12.5" hidden="1">
-      <c r="A282" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="B282" s="48" t="s">
-        <v>200</v>
+        <v>253</v>
+      </c>
+      <c r="K281" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="12.5">
+      <c r="A282" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="C282" s="19">
-        <v>2</v>
-      </c>
-      <c r="D282" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282" s="32">
-        <v>4</v>
-      </c>
-      <c r="F282" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F282" s="31"/>
+      <c r="G282" s="31"/>
+      <c r="H282" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G282" s="31"/>
-      <c r="H282" s="31"/>
       <c r="I282" s="31"/>
       <c r="J282" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="K282" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" ht="12.5" hidden="1">
+        <v>198</v>
+      </c>
+      <c r="K282" s="36"/>
+      <c r="L282" s="55" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="12.5">
       <c r="A283" s="46" t="s">
         <v>528</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C283" s="19">
+        <v>278</v>
+      </c>
+      <c r="D283" s="19">
         <v>1</v>
       </c>
       <c r="E283" s="32">
         <v>1</v>
       </c>
       <c r="F283" s="31"/>
-      <c r="G283" s="31"/>
-      <c r="H283" s="32" t="s">
+      <c r="G283" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="H283" s="31"/>
       <c r="I283" s="31"/>
       <c r="J283" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K283" s="36"/>
-      <c r="L283" s="55" t="s">
+      <c r="L283" s="50" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="12.5" hidden="1">
+    <row r="284" spans="1:12" ht="12.5">
       <c r="A284" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D284" s="19">
-        <v>1</v>
-      </c>
       <c r="E284" s="32">
         <v>1</v>
       </c>
-      <c r="F284" s="31"/>
-      <c r="G284" s="32" t="s">
+      <c r="F284" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G284" s="31"/>
       <c r="H284" s="31"/>
       <c r="I284" s="31"/>
       <c r="J284" s="19" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="K284" s="36"/>
-      <c r="L284" s="50" t="s">
+    </row>
+    <row r="285" spans="1:12" ht="12.5">
+      <c r="A285" s="105" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" ht="12.5" hidden="1">
-      <c r="A285" s="46" t="s">
-        <v>532</v>
+      <c r="B285" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D285" s="19">
+        <v>1</v>
       </c>
       <c r="E285" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F285" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G285" s="31"/>
       <c r="H285" s="31"/>
-      <c r="I285" s="31"/>
+      <c r="I285" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J285" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="K285" s="36"/>
-    </row>
-    <row r="286" spans="1:12" ht="12.5" hidden="1">
+        <v>262</v>
+      </c>
+      <c r="K285" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="12.5">
       <c r="A286" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="B286" s="19" t="s">
-        <v>279</v>
+        <v>532</v>
+      </c>
+      <c r="B286" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C286" s="19">
+        <v>1</v>
       </c>
       <c r="D286" s="19">
         <v>1</v>
       </c>
       <c r="E286" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F286" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G286" s="31"/>
       <c r="H286" s="31"/>
-      <c r="I286" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I286" s="31"/>
       <c r="J286" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K286" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="12.5" hidden="1">
-      <c r="A287" s="105" t="s">
-        <v>534</v>
-      </c>
-      <c r="B287" s="48" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="12.5">
+      <c r="A287" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="B287" s="62" t="s">
+        <v>270</v>
       </c>
       <c r="C287" s="19">
         <v>1</v>
       </c>
-      <c r="D287" s="19">
-        <v>1</v>
-      </c>
       <c r="E287" s="32">
         <v>1</v>
       </c>
-      <c r="F287" s="32" t="s">
+      <c r="F287" s="31"/>
+      <c r="G287" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G287" s="31"/>
       <c r="H287" s="31"/>
-      <c r="I287" s="31"/>
+      <c r="I287" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J287" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="12.5" hidden="1">
-      <c r="A288" s="68" t="s">
-        <v>535</v>
-      </c>
-      <c r="B288" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="C288" s="19">
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="K287" s="36"/>
+    </row>
+    <row r="288" spans="1:12" ht="12.5">
+      <c r="A288" s="19" t="s">
+        <v>534</v>
       </c>
       <c r="E288" s="32">
         <v>1</v>
       </c>
-      <c r="F288" s="31"/>
-      <c r="G288" s="32" t="s">
+      <c r="F288" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G288" s="31"/>
       <c r="H288" s="31"/>
-      <c r="I288" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I288" s="31"/>
       <c r="J288" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K288" s="36"/>
-    </row>
-    <row r="289" spans="1:12" ht="12.5" hidden="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="12.5">
       <c r="A289" s="19" t="s">
-        <v>536</v>
+        <v>226</v>
       </c>
       <c r="E289" s="32">
         <v>1</v>
@@ -77656,14 +77652,16 @@
       </c>
       <c r="G289" s="31"/>
       <c r="H289" s="31"/>
-      <c r="I289" s="31"/>
+      <c r="I289" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J289" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" ht="12.5" hidden="1">
-      <c r="A290" s="19" t="s">
-        <v>226</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="12.5">
+      <c r="A290" s="46" t="s">
+        <v>535</v>
       </c>
       <c r="E290" s="32">
         <v>1</v>
@@ -77673,264 +77671,259 @@
       </c>
       <c r="G290" s="31"/>
       <c r="H290" s="31"/>
-      <c r="I290" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I290" s="31"/>
       <c r="J290" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" ht="12.5" hidden="1">
+        <v>211</v>
+      </c>
+      <c r="K290" s="36"/>
+    </row>
+    <row r="291" spans="1:12" ht="12.5">
       <c r="A291" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C291" s="19">
+        <v>1</v>
       </c>
       <c r="E291" s="32">
         <v>1</v>
       </c>
-      <c r="F291" s="32" t="s">
+      <c r="F291" s="31"/>
+      <c r="G291" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G291" s="31"/>
       <c r="H291" s="31"/>
       <c r="I291" s="31"/>
       <c r="J291" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K291" s="36"/>
-    </row>
-    <row r="292" spans="1:12" ht="12.5" hidden="1">
-      <c r="A292" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="K291" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="L291" s="50" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="12.5">
+      <c r="A292" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B292" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C292" s="19">
-        <v>1</v>
-      </c>
-      <c r="E292" s="32">
-        <v>1</v>
-      </c>
+      <c r="B292" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D292" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E292" s="31"/>
       <c r="F292" s="31"/>
-      <c r="G292" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G292" s="31"/>
       <c r="H292" s="31"/>
       <c r="I292" s="31"/>
-      <c r="J292" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K292" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="L292" s="50" t="s">
+      <c r="J292" s="36"/>
+    </row>
+    <row r="293" spans="1:12" ht="12.5">
+      <c r="A293" s="59" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" ht="12.5">
-      <c r="A293" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B293" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D293" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E293" s="31"/>
-      <c r="F293" s="31"/>
+      <c r="E293" s="32">
+        <v>2</v>
+      </c>
+      <c r="F293" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G293" s="31"/>
       <c r="H293" s="31"/>
       <c r="I293" s="31"/>
-      <c r="J293" s="36"/>
-    </row>
-    <row r="294" spans="1:12" ht="12.5" hidden="1">
-      <c r="A294" s="59" t="s">
-        <v>541</v>
-      </c>
-      <c r="E294" s="32">
+      <c r="J293" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K293" s="36"/>
+    </row>
+    <row r="294" spans="1:12" ht="12.5">
+      <c r="A294" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="B294" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D294" s="19">
         <v>2</v>
       </c>
-      <c r="F294" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E294" s="31"/>
+      <c r="F294" s="31"/>
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="31"/>
-      <c r="J294" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K294" s="36"/>
+      <c r="J294" s="36"/>
     </row>
     <row r="295" spans="1:12" ht="12.5">
       <c r="A295" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="B295" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="B295" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D295" s="19">
-        <v>2</v>
+      <c r="C295" s="19">
+        <v>1</v>
       </c>
       <c r="E295" s="31"/>
-      <c r="F295" s="31"/>
+      <c r="F295" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G295" s="31"/>
       <c r="H295" s="31"/>
-      <c r="I295" s="31"/>
-      <c r="J295" s="36"/>
+      <c r="I295" s="32">
+        <v>1</v>
+      </c>
+      <c r="J295" s="19" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="296" spans="1:12" ht="12.5">
-      <c r="A296" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="B296" s="19" t="s">
-        <v>194</v>
+      <c r="A296" s="46" t="s">
+        <v>542</v>
       </c>
       <c r="C296" s="19">
         <v>1</v>
       </c>
-      <c r="E296" s="31"/>
-      <c r="F296" s="32" t="s">
+      <c r="E296" s="32">
+        <v>1</v>
+      </c>
+      <c r="F296" s="31"/>
+      <c r="G296" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G296" s="31"/>
       <c r="H296" s="31"/>
-      <c r="I296" s="32">
-        <v>1</v>
-      </c>
+      <c r="I296" s="31"/>
       <c r="J296" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K296" s="19" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" ht="12.5" hidden="1">
+      <c r="L296" s="50" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="12.5">
       <c r="A297" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C297" s="19">
+      <c r="D297" s="19">
         <v>1</v>
       </c>
       <c r="E297" s="32">
-        <v>1</v>
-      </c>
-      <c r="F297" s="31"/>
-      <c r="G297" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F297" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G297" s="31"/>
       <c r="H297" s="31"/>
       <c r="I297" s="31"/>
       <c r="J297" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K297" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="L297" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K297" s="36"/>
+    </row>
+    <row r="298" spans="1:12" ht="12.5">
+      <c r="A298" s="7" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" ht="12.5" hidden="1">
-      <c r="A298" s="46" t="s">
-        <v>546</v>
+      <c r="B298" s="48" t="s">
+        <v>200</v>
       </c>
       <c r="D298" s="19">
         <v>1</v>
       </c>
-      <c r="E298" s="32">
-        <v>2</v>
-      </c>
-      <c r="F298" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E298" s="31"/>
+      <c r="F298" s="31"/>
       <c r="G298" s="31"/>
       <c r="H298" s="31"/>
       <c r="I298" s="31"/>
-      <c r="J298" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K298" s="36"/>
+      <c r="J298" s="36"/>
     </row>
     <row r="299" spans="1:12" ht="12.5">
-      <c r="A299" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="B299" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D299" s="19">
-        <v>1</v>
-      </c>
-      <c r="E299" s="31"/>
-      <c r="F299" s="31"/>
+      <c r="A299" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C299" s="19">
+        <v>2</v>
+      </c>
+      <c r="E299" s="32">
+        <v>2</v>
+      </c>
+      <c r="F299" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
       <c r="I299" s="31"/>
-      <c r="J299" s="36"/>
-    </row>
-    <row r="300" spans="1:12" ht="12.5" hidden="1">
-      <c r="A300" s="70" t="s">
-        <v>229</v>
+      <c r="J299" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K299" s="36"/>
+    </row>
+    <row r="300" spans="1:12" ht="12.5">
+      <c r="A300" s="105" t="s">
+        <v>546</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C300" s="19">
-        <v>2</v>
-      </c>
-      <c r="E300" s="32">
-        <v>2</v>
-      </c>
-      <c r="F300" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E300" s="31"/>
+      <c r="F300" s="31"/>
       <c r="G300" s="31"/>
       <c r="H300" s="31"/>
       <c r="I300" s="31"/>
-      <c r="J300" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K300" s="36"/>
+      <c r="J300" s="36"/>
     </row>
     <row r="301" spans="1:12" ht="12.5">
-      <c r="A301" s="105" t="s">
-        <v>548</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E301" s="31"/>
-      <c r="F301" s="31"/>
+      <c r="A301" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="E301" s="32">
+        <v>3</v>
+      </c>
+      <c r="F301" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G301" s="31"/>
       <c r="H301" s="31"/>
       <c r="I301" s="31"/>
-      <c r="J301" s="36"/>
-    </row>
-    <row r="302" spans="1:12" ht="12.5" hidden="1">
-      <c r="A302" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="E302" s="32">
-        <v>3</v>
-      </c>
-      <c r="F302" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="J301" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K301" s="36"/>
+    </row>
+    <row r="302" spans="1:12" ht="12.5">
+      <c r="A302" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D302" s="19">
+        <v>0</v>
+      </c>
+      <c r="E302" s="31"/>
+      <c r="F302" s="31"/>
       <c r="G302" s="31"/>
       <c r="H302" s="31"/>
       <c r="I302" s="31"/>
-      <c r="J302" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K302" s="36"/>
+      <c r="J302" s="36"/>
     </row>
     <row r="303" spans="1:12" ht="12.5">
-      <c r="A303" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="B303" s="19" t="s">
-        <v>194</v>
+      <c r="A303" s="49" t="s">
+        <v>640</v>
       </c>
       <c r="D303" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303" s="31"/>
       <c r="F303" s="31"/>
@@ -77940,11 +77933,14 @@
       <c r="J303" s="36"/>
     </row>
     <row r="304" spans="1:12" ht="12.5">
-      <c r="A304" s="49" t="s">
-        <v>642</v>
+      <c r="A304" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="D304" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304" s="31"/>
       <c r="F304" s="31"/>
@@ -77952,16 +77948,19 @@
       <c r="H304" s="31"/>
       <c r="I304" s="31"/>
       <c r="J304" s="36"/>
-    </row>
-    <row r="305" spans="1:12" ht="12.5">
-      <c r="A305" s="19" t="s">
+      <c r="L304" s="55" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" ht="12.5">
+      <c r="A305" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="B305" s="19" t="s">
-        <v>200</v>
+      <c r="B305" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D305" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" s="31"/>
       <c r="F305" s="31"/>
@@ -77969,36 +77968,34 @@
       <c r="H305" s="31"/>
       <c r="I305" s="31"/>
       <c r="J305" s="36"/>
-      <c r="L305" s="55" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" ht="12.5">
-      <c r="A306" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="B306" s="48" t="s">
-        <v>194</v>
+    </row>
+    <row r="306" spans="1:11" ht="12.5">
+      <c r="A306" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="D306" s="19">
         <v>1</v>
       </c>
-      <c r="E306" s="31"/>
-      <c r="F306" s="31"/>
+      <c r="E306" s="32">
+        <v>1</v>
+      </c>
+      <c r="F306" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G306" s="31"/>
       <c r="H306" s="31"/>
-      <c r="I306" s="31"/>
-      <c r="J306" s="36"/>
-    </row>
-    <row r="307" spans="1:12" ht="12.5" hidden="1">
-      <c r="A307" s="49" t="s">
-        <v>636</v>
-      </c>
-      <c r="B307" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D307" s="19">
-        <v>1</v>
+      <c r="I306" s="32"/>
+      <c r="J306" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K306" s="36"/>
+    </row>
+    <row r="307" spans="1:11" ht="12.5">
+      <c r="A307" s="46" t="s">
+        <v>552</v>
       </c>
       <c r="E307" s="32">
         <v>1</v>
@@ -78008,77 +78005,83 @@
       </c>
       <c r="G307" s="31"/>
       <c r="H307" s="31"/>
-      <c r="I307" s="32"/>
+      <c r="I307" s="31"/>
       <c r="J307" s="19" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="K307" s="36"/>
     </row>
-    <row r="308" spans="1:12" ht="12.5" hidden="1">
-      <c r="A308" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="E308" s="32">
-        <v>1</v>
-      </c>
-      <c r="F308" s="32" t="s">
-        <v>32</v>
-      </c>
+    <row r="308" spans="1:11" ht="12.5">
+      <c r="A308" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D308" s="19">
+        <v>0</v>
+      </c>
+      <c r="E308" s="31"/>
+      <c r="F308" s="31"/>
       <c r="G308" s="31"/>
       <c r="H308" s="31"/>
       <c r="I308" s="31"/>
-      <c r="J308" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K308" s="36"/>
-    </row>
-    <row r="309" spans="1:12" ht="12.5">
-      <c r="A309" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="B309" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D309" s="19">
-        <v>0</v>
-      </c>
-      <c r="E309" s="31"/>
-      <c r="F309" s="31"/>
+      <c r="J308" s="36"/>
+    </row>
+    <row r="309" spans="1:11" ht="12.5">
+      <c r="A309" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="E309" s="32">
+        <v>1</v>
+      </c>
+      <c r="F309" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G309" s="31"/>
       <c r="H309" s="31"/>
       <c r="I309" s="31"/>
-      <c r="J309" s="36"/>
-    </row>
-    <row r="310" spans="1:12" ht="12.5" hidden="1">
-      <c r="A310" s="46" t="s">
-        <v>556</v>
+      <c r="J309" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K309" s="36"/>
+    </row>
+    <row r="310" spans="1:11" ht="12.5">
+      <c r="A310" s="63" t="s">
+        <v>555</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C310" s="19">
+        <v>3</v>
       </c>
       <c r="E310" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F310" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G310" s="31"/>
       <c r="H310" s="31"/>
-      <c r="I310" s="31"/>
+      <c r="I310" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J310" s="19" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K310" s="36"/>
     </row>
-    <row r="311" spans="1:12" ht="12.5" hidden="1">
-      <c r="A311" s="63" t="s">
-        <v>557</v>
-      </c>
-      <c r="B311" s="19" t="s">
-        <v>271</v>
-      </c>
+    <row r="311" spans="1:11" ht="12.5">
+      <c r="A311" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="B311" s="62"/>
       <c r="C311" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E311" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F311" s="32" t="s">
         <v>32</v>
@@ -78089,63 +78092,56 @@
         <v>32</v>
       </c>
       <c r="J311" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K311" s="36"/>
     </row>
-    <row r="312" spans="1:12" ht="12.5" hidden="1">
+    <row r="312" spans="1:11" ht="12.5">
       <c r="A312" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B312" s="62"/>
+        <v>557</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="C312" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E312" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F312" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G312" s="31"/>
       <c r="H312" s="31"/>
-      <c r="I312" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I312" s="31"/>
       <c r="J312" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K312" s="36"/>
-    </row>
-    <row r="313" spans="1:12" ht="12.5" hidden="1">
-      <c r="A313" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="B313" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C313" s="19">
-        <v>1</v>
-      </c>
-      <c r="E313" s="32">
-        <v>1</v>
-      </c>
-      <c r="F313" s="32" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="313" spans="1:11" ht="12.5">
+      <c r="A313" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D313" s="19">
+        <v>0</v>
+      </c>
+      <c r="E313" s="31"/>
+      <c r="F313" s="31"/>
       <c r="G313" s="31"/>
       <c r="H313" s="31"/>
       <c r="I313" s="31"/>
-      <c r="J313" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" ht="12.5">
-      <c r="A314" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="D314" s="19">
-        <v>0</v>
+      <c r="J313" s="36"/>
+    </row>
+    <row r="314" spans="1:11" ht="12.5">
+      <c r="A314" s="105" t="s">
+        <v>559</v>
+      </c>
+      <c r="B314" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D314" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="E314" s="31"/>
       <c r="F314" s="31"/>
@@ -78154,12 +78150,12 @@
       <c r="I314" s="31"/>
       <c r="J314" s="36"/>
     </row>
-    <row r="315" spans="1:12" ht="12.5">
+    <row r="315" spans="1:11" ht="12.5">
       <c r="A315" s="105" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B315" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D315" s="19" t="s">
         <v>197</v>
@@ -78171,12 +78167,12 @@
       <c r="I315" s="31"/>
       <c r="J315" s="36"/>
     </row>
-    <row r="316" spans="1:12" ht="12.5">
+    <row r="316" spans="1:11" ht="12.5">
       <c r="A316" s="105" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B316" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D316" s="19" t="s">
         <v>197</v>
@@ -78188,32 +78184,33 @@
       <c r="I316" s="31"/>
       <c r="J316" s="36"/>
     </row>
-    <row r="317" spans="1:12" ht="12.5">
-      <c r="A317" s="105" t="s">
-        <v>563</v>
-      </c>
-      <c r="B317" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D317" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E317" s="31"/>
-      <c r="F317" s="31"/>
+    <row r="317" spans="1:11" ht="12.5">
+      <c r="A317" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B317" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D317" s="19">
+        <v>1</v>
+      </c>
+      <c r="E317" s="32">
+        <v>1</v>
+      </c>
+      <c r="F317" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G317" s="31"/>
       <c r="H317" s="31"/>
       <c r="I317" s="31"/>
-      <c r="J317" s="36"/>
-    </row>
-    <row r="318" spans="1:12" ht="12.5" hidden="1">
+      <c r="J317" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K317" s="36"/>
+    </row>
+    <row r="318" spans="1:11" ht="12.5">
       <c r="A318" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="B318" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D318" s="19">
-        <v>1</v>
+        <v>563</v>
       </c>
       <c r="E318" s="32">
         <v>1</v>
@@ -78227,76 +78224,79 @@
       <c r="J318" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K318" s="36"/>
-    </row>
-    <row r="319" spans="1:12" ht="12.5" hidden="1">
+      <c r="K318" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="12.5">
       <c r="A319" s="46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E319" s="32">
         <v>1</v>
       </c>
-      <c r="F319" s="32" t="s">
+      <c r="F319" s="32"/>
+      <c r="G319" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G319" s="31"/>
       <c r="H319" s="31"/>
       <c r="I319" s="31"/>
       <c r="J319" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K319" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K319" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" ht="12.5" hidden="1">
+    </row>
+    <row r="320" spans="1:11" ht="12.5">
       <c r="A320" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C320" s="19">
+        <v>1</v>
+      </c>
+      <c r="E320" s="32">
+        <v>2</v>
+      </c>
+      <c r="F320" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G320" s="31"/>
+      <c r="H320" s="31"/>
+      <c r="I320" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J320" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="12.5">
+      <c r="A321" s="59" t="s">
         <v>566</v>
       </c>
-      <c r="E320" s="32">
+      <c r="E321" s="32">
         <v>1</v>
-      </c>
-      <c r="F320" s="32"/>
-      <c r="G320" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H320" s="31"/>
-      <c r="I320" s="31"/>
-      <c r="J320" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K320" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" ht="12.5" hidden="1">
-      <c r="A321" s="46" t="s">
-        <v>567</v>
-      </c>
-      <c r="B321" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C321" s="19">
-        <v>1</v>
-      </c>
-      <c r="E321" s="32">
-        <v>2</v>
       </c>
       <c r="F321" s="32" t="s">
         <v>32</v>
       </c>
       <c r="G321" s="31"/>
       <c r="H321" s="31"/>
-      <c r="I321" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I321" s="31"/>
       <c r="J321" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" ht="12.5" hidden="1">
-      <c r="A322" s="59" t="s">
-        <v>568</v>
+        <v>218</v>
+      </c>
+      <c r="K321" s="36"/>
+    </row>
+    <row r="322" spans="1:12" ht="12.5">
+      <c r="A322" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="C322" s="19">
+        <v>1</v>
       </c>
       <c r="E322" s="32">
         <v>1</v>
@@ -78306,18 +78306,16 @@
       </c>
       <c r="G322" s="31"/>
       <c r="H322" s="31"/>
-      <c r="I322" s="31"/>
+      <c r="I322" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J322" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K322" s="36"/>
-    </row>
-    <row r="323" spans="1:12" ht="12.5" hidden="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="12.5">
       <c r="A323" s="46" t="s">
-        <v>569</v>
-      </c>
-      <c r="C323" s="19">
-        <v>1</v>
+        <v>568</v>
       </c>
       <c r="E323" s="32">
         <v>1</v>
@@ -78327,78 +78325,76 @@
       </c>
       <c r="G323" s="31"/>
       <c r="H323" s="31"/>
-      <c r="I323" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="I323" s="31"/>
       <c r="J323" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" ht="12.5" hidden="1">
+        <v>213</v>
+      </c>
+      <c r="K323" s="36"/>
+    </row>
+    <row r="324" spans="1:12" ht="12.5">
       <c r="A324" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
+      </c>
+      <c r="C324" s="19">
+        <v>1</v>
       </c>
       <c r="E324" s="32">
         <v>1</v>
       </c>
-      <c r="F324" s="32" t="s">
+      <c r="F324" s="31"/>
+      <c r="G324" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G324" s="31"/>
       <c r="H324" s="31"/>
       <c r="I324" s="31"/>
       <c r="J324" s="19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="K324" s="36"/>
     </row>
-    <row r="325" spans="1:12" ht="12.5" hidden="1">
-      <c r="A325" s="46" t="s">
-        <v>571</v>
-      </c>
-      <c r="C325" s="19">
-        <v>1</v>
+    <row r="325" spans="1:12" ht="12.5">
+      <c r="A325" s="19" t="s">
+        <v>540</v>
       </c>
       <c r="E325" s="32">
         <v>1</v>
       </c>
-      <c r="F325" s="31"/>
-      <c r="G325" s="32" t="s">
+      <c r="F325" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G325" s="31"/>
       <c r="H325" s="31"/>
       <c r="I325" s="31"/>
       <c r="J325" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K325" s="36"/>
-    </row>
-    <row r="326" spans="1:12" ht="12.5" hidden="1">
-      <c r="A326" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E326" s="32">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="12.5">
+      <c r="A326" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="B326" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D326" s="19">
         <v>1</v>
       </c>
-      <c r="F326" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E326" s="31"/>
+      <c r="F326" s="31"/>
       <c r="G326" s="31"/>
       <c r="H326" s="31"/>
       <c r="I326" s="31"/>
-      <c r="J326" s="19" t="s">
-        <v>195</v>
+      <c r="J326" s="36"/>
+      <c r="L326" s="55" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="327" spans="1:12" ht="12.5">
-      <c r="A327" s="56" t="s">
+      <c r="A327" s="105" t="s">
         <v>572</v>
       </c>
-      <c r="B327" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D327" s="19">
-        <v>1</v>
+      <c r="B327" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="E327" s="31"/>
       <c r="F327" s="31"/>
@@ -78411,11 +78407,14 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="12.5">
-      <c r="A328" s="105" t="s">
+      <c r="A328" s="19" t="s">
         <v>574</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="D328" s="19">
+        <v>1</v>
       </c>
       <c r="E328" s="31"/>
       <c r="F328" s="31"/>
@@ -78428,11 +78427,11 @@
       </c>
     </row>
     <row r="329" spans="1:12" ht="12.5">
-      <c r="A329" s="19" t="s">
+      <c r="A329" s="74" t="s">
         <v>576</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D329" s="19">
         <v>1</v>
@@ -78448,37 +78447,42 @@
       </c>
     </row>
     <row r="330" spans="1:12" ht="12.5">
-      <c r="A330" s="74" t="s">
+      <c r="A330" s="46" t="s">
         <v>578</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D330" s="19">
-        <v>1</v>
-      </c>
-      <c r="E330" s="31"/>
-      <c r="F330" s="31"/>
+        <v>194</v>
+      </c>
+      <c r="C330" s="19">
+        <v>4</v>
+      </c>
+      <c r="E330" s="32">
+        <v>3</v>
+      </c>
+      <c r="F330" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G330" s="31"/>
       <c r="H330" s="31"/>
       <c r="I330" s="31"/>
-      <c r="J330" s="36"/>
-      <c r="L330" s="55" t="s">
+      <c r="J330" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K330" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="12.5">
+      <c r="A331" s="70" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" ht="12.5" hidden="1">
-      <c r="A331" s="46" t="s">
-        <v>580</v>
-      </c>
-      <c r="B331" s="19" t="s">
-        <v>194</v>
-      </c>
+      <c r="B331" s="48"/>
       <c r="C331" s="19">
         <v>4</v>
       </c>
+      <c r="D331" s="19"/>
       <c r="E331" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F331" s="32" t="s">
         <v>32</v>
@@ -78487,23 +78491,19 @@
       <c r="H331" s="31"/>
       <c r="I331" s="31"/>
       <c r="J331" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K331" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" ht="12.5" hidden="1">
-      <c r="A332" s="70" t="s">
-        <v>581</v>
-      </c>
-      <c r="B332" s="48"/>
+        <v>247</v>
+      </c>
+      <c r="K331" s="36"/>
+    </row>
+    <row r="332" spans="1:12" ht="12.5">
+      <c r="A332" s="85" t="s">
+        <v>580</v>
+      </c>
       <c r="C332" s="19">
-        <v>4</v>
-      </c>
-      <c r="D332" s="19"/>
+        <v>1</v>
+      </c>
       <c r="E332" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F332" s="32" t="s">
         <v>32</v>
@@ -78512,19 +78512,16 @@
       <c r="H332" s="31"/>
       <c r="I332" s="31"/>
       <c r="J332" s="19" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="K332" s="36"/>
     </row>
-    <row r="333" spans="1:12" ht="12.5" hidden="1">
-      <c r="A333" s="85" t="s">
-        <v>582</v>
-      </c>
-      <c r="C333" s="19">
-        <v>1</v>
+    <row r="333" spans="1:12" ht="12.5">
+      <c r="A333" s="46" t="s">
+        <v>581</v>
       </c>
       <c r="E333" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F333" s="32" t="s">
         <v>32</v>
@@ -78533,16 +78530,16 @@
       <c r="H333" s="31"/>
       <c r="I333" s="31"/>
       <c r="J333" s="19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="K333" s="36"/>
     </row>
-    <row r="334" spans="1:12" ht="12.5" hidden="1">
-      <c r="A334" s="46" t="s">
-        <v>583</v>
+    <row r="334" spans="1:12" ht="12.5">
+      <c r="A334" s="19" t="s">
+        <v>582</v>
       </c>
       <c r="E334" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F334" s="32" t="s">
         <v>32</v>
@@ -78553,11 +78550,13 @@
       <c r="J334" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K334" s="36"/>
-    </row>
-    <row r="335" spans="1:12" ht="12.5" hidden="1">
-      <c r="A335" s="19" t="s">
-        <v>584</v>
+    </row>
+    <row r="335" spans="1:12" ht="12.5">
+      <c r="A335" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C335" s="19">
+        <v>1</v>
       </c>
       <c r="E335" s="32">
         <v>1</v>
@@ -78571,12 +78570,16 @@
       <c r="J335" s="19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" ht="12.5" hidden="1">
+      <c r="K335" s="36"/>
+    </row>
+    <row r="336" spans="1:12" ht="12.5">
       <c r="A336" s="46" t="s">
-        <v>585</v>
-      </c>
-      <c r="C336" s="19">
+        <v>584</v>
+      </c>
+      <c r="B336" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D336" s="19">
         <v>1</v>
       </c>
       <c r="E336" s="32">
@@ -78593,40 +78596,40 @@
       </c>
       <c r="K336" s="36"/>
     </row>
-    <row r="337" spans="1:12" ht="12.5" hidden="1">
-      <c r="A337" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="B337" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D337" s="19">
-        <v>1</v>
+    <row r="337" spans="1:12" ht="12.5">
+      <c r="A337" s="60" t="s">
+        <v>585</v>
+      </c>
+      <c r="B337" s="62"/>
+      <c r="C337" s="19">
+        <v>4</v>
       </c>
       <c r="E337" s="32">
-        <v>1</v>
-      </c>
-      <c r="F337" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F337" s="31"/>
+      <c r="G337" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G337" s="31"/>
       <c r="H337" s="31"/>
       <c r="I337" s="31"/>
       <c r="J337" s="19" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K337" s="36"/>
-    </row>
-    <row r="338" spans="1:12" ht="12.5" hidden="1">
-      <c r="A338" s="60" t="s">
+      <c r="L337" s="50" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="12.5">
+      <c r="A338" s="81" t="s">
         <v>587</v>
       </c>
-      <c r="B338" s="62"/>
       <c r="C338" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E338" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F338" s="31"/>
       <c r="G338" s="32" t="s">
@@ -78637,103 +78640,100 @@
       <c r="J338" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="K338" s="36"/>
-      <c r="L338" s="50" t="s">
+    </row>
+    <row r="339" spans="1:12" ht="12.5">
+      <c r="A339" s="54" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" ht="12.5" hidden="1">
-      <c r="A339" s="81" t="s">
-        <v>589</v>
-      </c>
-      <c r="C339" s="19">
+      <c r="B339" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D339" s="19">
         <v>1</v>
       </c>
       <c r="E339" s="32">
         <v>1</v>
       </c>
-      <c r="F339" s="31"/>
-      <c r="G339" s="32" t="s">
+      <c r="F339" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G339" s="31"/>
       <c r="H339" s="31"/>
       <c r="I339" s="31"/>
       <c r="J339" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" ht="12.5" hidden="1">
-      <c r="A340" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="B340" s="19" t="s">
-        <v>279</v>
+        <v>195</v>
+      </c>
+      <c r="K339" s="36"/>
+    </row>
+    <row r="340" spans="1:12" ht="12.5">
+      <c r="A340" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="B340" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D340" s="19">
         <v>1</v>
       </c>
-      <c r="E340" s="32">
-        <v>1</v>
-      </c>
-      <c r="F340" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E340" s="31"/>
+      <c r="F340" s="31"/>
       <c r="G340" s="31"/>
       <c r="H340" s="31"/>
       <c r="I340" s="31"/>
-      <c r="J340" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K340" s="36"/>
+      <c r="J340" s="36"/>
+      <c r="L340" s="55" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="341" spans="1:12" ht="12.5">
-      <c r="A341" s="19" t="s">
+      <c r="A341" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="B341" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D341" s="19">
+      <c r="B341" s="48"/>
+      <c r="C341" s="19">
         <v>1</v>
       </c>
-      <c r="E341" s="31"/>
-      <c r="F341" s="31"/>
+      <c r="E341" s="32">
+        <v>1</v>
+      </c>
+      <c r="F341" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G341" s="31"/>
       <c r="H341" s="31"/>
       <c r="I341" s="31"/>
-      <c r="J341" s="36"/>
-      <c r="L341" s="55" t="s">
+      <c r="J341" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K341" s="36"/>
+    </row>
+    <row r="342" spans="1:12" ht="12.5">
+      <c r="A342" s="46" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" ht="12.5" hidden="1">
-      <c r="A342" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="B342" s="48"/>
       <c r="C342" s="19">
         <v>1</v>
       </c>
       <c r="E342" s="32">
         <v>1</v>
       </c>
-      <c r="F342" s="32" t="s">
+      <c r="F342" s="31"/>
+      <c r="G342" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G342" s="31"/>
       <c r="H342" s="31"/>
       <c r="I342" s="31"/>
       <c r="J342" s="19" t="s">
         <v>213</v>
       </c>
       <c r="K342" s="36"/>
-    </row>
-    <row r="343" spans="1:12" ht="12.5" hidden="1">
+      <c r="L342" s="50" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="12.5">
       <c r="A343" s="46" t="s">
         <v>594</v>
-      </c>
-      <c r="C343" s="19">
-        <v>1</v>
       </c>
       <c r="E343" s="32">
         <v>1</v>
@@ -78748,54 +78748,51 @@
         <v>213</v>
       </c>
       <c r="K343" s="36"/>
-      <c r="L343" s="50" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" ht="12.5" hidden="1">
-      <c r="A344" s="46" t="s">
-        <v>596</v>
-      </c>
-      <c r="E344" s="32">
+    </row>
+    <row r="344" spans="1:12" ht="12.5">
+      <c r="A344" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D344" s="19">
         <v>1</v>
       </c>
+      <c r="E344" s="31"/>
       <c r="F344" s="31"/>
-      <c r="G344" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G344" s="31"/>
       <c r="H344" s="31"/>
       <c r="I344" s="31"/>
-      <c r="J344" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K344" s="36"/>
+      <c r="J344" s="36"/>
+      <c r="L344" s="55" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="345" spans="1:12" ht="12.5">
-      <c r="A345" s="49" t="s">
-        <v>641</v>
-      </c>
-      <c r="B345" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D345" s="19">
+      <c r="A345" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="E345" s="32">
         <v>1</v>
       </c>
-      <c r="E345" s="31"/>
-      <c r="F345" s="31"/>
+      <c r="F345" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G345" s="31"/>
       <c r="H345" s="31"/>
       <c r="I345" s="31"/>
-      <c r="J345" s="36"/>
-      <c r="L345" s="55" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" ht="12.5" hidden="1">
+      <c r="J345" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K345" s="36"/>
+    </row>
+    <row r="346" spans="1:12" ht="12.5">
       <c r="A346" s="46" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E346" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F346" s="32" t="s">
         <v>32</v>
@@ -78804,16 +78801,16 @@
       <c r="H346" s="31"/>
       <c r="I346" s="31"/>
       <c r="J346" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K346" s="36"/>
     </row>
-    <row r="347" spans="1:12" ht="12.5" hidden="1">
+    <row r="347" spans="1:12" ht="12.5">
       <c r="A347" s="46" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E347" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F347" s="32" t="s">
         <v>32</v>
@@ -78822,16 +78819,20 @@
       <c r="H347" s="31"/>
       <c r="I347" s="31"/>
       <c r="J347" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K347" s="36"/>
     </row>
-    <row r="348" spans="1:12" ht="12.5" hidden="1">
+    <row r="348" spans="1:12" ht="12.5">
       <c r="A348" s="46" t="s">
-        <v>599</v>
+        <v>598</v>
+      </c>
+      <c r="B348" s="53"/>
+      <c r="C348" s="19">
+        <v>2</v>
       </c>
       <c r="E348" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F348" s="32" t="s">
         <v>32</v>
@@ -78840,20 +78841,20 @@
       <c r="H348" s="31"/>
       <c r="I348" s="31"/>
       <c r="J348" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K348" s="36"/>
     </row>
-    <row r="349" spans="1:12" ht="12.5" hidden="1">
-      <c r="A349" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="B349" s="53"/>
+    <row r="349" spans="1:12" ht="12.5">
+      <c r="A349" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B349" s="48"/>
       <c r="C349" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F349" s="32" t="s">
         <v>32</v>
@@ -78862,20 +78863,16 @@
       <c r="H349" s="31"/>
       <c r="I349" s="31"/>
       <c r="J349" s="19" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="K349" s="36"/>
     </row>
-    <row r="350" spans="1:12" ht="12.5" hidden="1">
-      <c r="A350" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="B350" s="48"/>
-      <c r="C350" s="19">
-        <v>3</v>
+    <row r="350" spans="1:12" ht="12.5">
+      <c r="A350" s="46" t="s">
+        <v>599</v>
       </c>
       <c r="E350" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F350" s="32" t="s">
         <v>32</v>
@@ -78888,77 +78885,79 @@
       </c>
       <c r="K350" s="36"/>
     </row>
-    <row r="351" spans="1:12" ht="12.5" hidden="1">
-      <c r="A351" s="46" t="s">
-        <v>601</v>
-      </c>
-      <c r="E351" s="32">
+    <row r="351" spans="1:12" ht="12.5">
+      <c r="A351" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="C351" s="19">
         <v>1</v>
       </c>
-      <c r="F351" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="E351" s="31"/>
+      <c r="F351" s="31"/>
       <c r="G351" s="31"/>
       <c r="H351" s="31"/>
       <c r="I351" s="31"/>
       <c r="J351" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K351" s="36"/>
+        <v>258</v>
+      </c>
     </row>
     <row r="352" spans="1:12" ht="12.5">
-      <c r="A352" s="81" t="s">
-        <v>602</v>
-      </c>
-      <c r="C352" s="19">
+      <c r="A352" s="87" t="s">
+        <v>601</v>
+      </c>
+      <c r="B352" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D352" s="19">
         <v>1</v>
       </c>
-      <c r="E352" s="31"/>
+      <c r="E352" s="32">
+        <v>1</v>
+      </c>
       <c r="F352" s="31"/>
       <c r="G352" s="31"/>
-      <c r="H352" s="31"/>
+      <c r="H352" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="I352" s="31"/>
       <c r="J352" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" ht="12.5" hidden="1">
-      <c r="A353" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="K352" s="36"/>
+      <c r="L352" s="55" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="12.5">
+      <c r="A353" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="B353" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D353" s="19">
-        <v>1</v>
+      <c r="B353" s="53"/>
+      <c r="C353" s="19">
+        <v>4</v>
       </c>
       <c r="E353" s="32">
-        <v>1</v>
-      </c>
-      <c r="F353" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="F353" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G353" s="31"/>
-      <c r="H353" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="H353" s="31"/>
       <c r="I353" s="31"/>
       <c r="J353" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K353" s="36"/>
-      <c r="L353" s="55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="12.5">
+      <c r="A354" s="73" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" ht="12.5" hidden="1">
-      <c r="A354" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="B354" s="53"/>
       <c r="C354" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E354" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F354" s="32" t="s">
         <v>32</v>
@@ -78967,50 +78966,51 @@
       <c r="H354" s="31"/>
       <c r="I354" s="31"/>
       <c r="J354" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" ht="12.5" hidden="1">
-      <c r="A355" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="K354" s="36"/>
+    </row>
+    <row r="355" spans="1:12" ht="12.5">
+      <c r="A355" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="E355" s="31"/>
+      <c r="F355" s="32" t="s">
         <v>606</v>
-      </c>
-      <c r="C355" s="19">
-        <v>1</v>
-      </c>
-      <c r="E355" s="32">
-        <v>2</v>
-      </c>
-      <c r="F355" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="G355" s="31"/>
       <c r="H355" s="31"/>
-      <c r="I355" s="31"/>
+      <c r="I355" s="32" t="s">
+        <v>606</v>
+      </c>
       <c r="J355" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K355" s="36"/>
+        <v>251</v>
+      </c>
     </row>
     <row r="356" spans="1:12" ht="12.5">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="E356" s="31"/>
+      <c r="C356" s="19">
+        <v>1</v>
+      </c>
+      <c r="E356" s="32">
+        <v>1</v>
+      </c>
       <c r="F356" s="32" t="s">
-        <v>608</v>
+        <v>32</v>
       </c>
       <c r="G356" s="31"/>
       <c r="H356" s="31"/>
-      <c r="I356" s="32" t="s">
+      <c r="I356" s="31"/>
+      <c r="J356" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K356" s="36"/>
+    </row>
+    <row r="357" spans="1:12" ht="12.5">
+      <c r="A357" s="73" t="s">
         <v>608</v>
-      </c>
-      <c r="J356" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" ht="12.5" hidden="1">
-      <c r="A357" s="46" t="s">
-        <v>609</v>
       </c>
       <c r="C357" s="19">
         <v>1</v>
@@ -79029,33 +79029,34 @@
       </c>
       <c r="K357" s="36"/>
     </row>
-    <row r="358" spans="1:12" ht="12.5" hidden="1">
-      <c r="A358" s="73" t="s">
-        <v>610</v>
-      </c>
-      <c r="C358" s="19">
-        <v>1</v>
+    <row r="358" spans="1:12" ht="12.5">
+      <c r="A358" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="E358" s="32">
-        <v>1</v>
-      </c>
-      <c r="F358" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F358" s="31"/>
+      <c r="G358" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G358" s="31"/>
       <c r="H358" s="31"/>
       <c r="I358" s="31"/>
       <c r="J358" s="19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K358" s="36"/>
-    </row>
-    <row r="359" spans="1:12" ht="12.5" hidden="1">
+      <c r="L358" s="50" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="12.5">
       <c r="A359" s="46" t="s">
         <v>611</v>
       </c>
+      <c r="C359" s="19"/>
       <c r="E359" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F359" s="31"/>
       <c r="G359" s="32" t="s">
@@ -79067,15 +79068,15 @@
         <v>213</v>
       </c>
       <c r="K359" s="36"/>
-      <c r="L359" s="50" t="s">
+      <c r="L359" s="88"/>
+    </row>
+    <row r="360" spans="1:12" ht="12.5">
+      <c r="A360" s="73" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" ht="12.5" hidden="1">
-      <c r="A360" s="46" t="s">
-        <v>613</v>
-      </c>
-      <c r="C360" s="19"/>
+      <c r="C360" s="19">
+        <v>1</v>
+      </c>
       <c r="E360" s="32">
         <v>1</v>
       </c>
@@ -79086,38 +79087,36 @@
       <c r="H360" s="31"/>
       <c r="I360" s="31"/>
       <c r="J360" s="19" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="K360" s="36"/>
-      <c r="L360" s="88"/>
-    </row>
-    <row r="361" spans="1:12" ht="12.5" hidden="1">
-      <c r="A361" s="73" t="s">
+      <c r="L360" s="50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="12.5">
+      <c r="A361" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="C361" s="19">
-        <v>1</v>
       </c>
       <c r="E361" s="32">
         <v>1</v>
       </c>
-      <c r="F361" s="31"/>
-      <c r="G361" s="32" t="s">
+      <c r="F361" s="32" t="s">
         <v>32</v>
       </c>
+      <c r="G361" s="31"/>
       <c r="H361" s="31"/>
       <c r="I361" s="31"/>
       <c r="J361" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K361" s="36"/>
-      <c r="L361" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="12.5">
+      <c r="A362" s="73" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" ht="12.5" hidden="1">
-      <c r="A362" s="19" t="s">
-        <v>616</v>
+      <c r="C362" s="19">
+        <v>1</v>
       </c>
       <c r="E362" s="32">
         <v>1</v>
@@ -79131,13 +79130,11 @@
       <c r="J362" s="19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" ht="12.5" hidden="1">
-      <c r="A363" s="73" t="s">
-        <v>617</v>
-      </c>
-      <c r="C363" s="19">
-        <v>1</v>
+      <c r="K362" s="36"/>
+    </row>
+    <row r="363" spans="1:12" ht="12.5">
+      <c r="A363" s="46" t="s">
+        <v>616</v>
       </c>
       <c r="E363" s="32">
         <v>1</v>
@@ -79149,48 +79146,56 @@
       <c r="H363" s="31"/>
       <c r="I363" s="31"/>
       <c r="J363" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K363" s="36"/>
+    </row>
+    <row r="364" spans="1:12" ht="12.5">
+      <c r="A364" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="E364" s="31"/>
+      <c r="F364" s="31"/>
+      <c r="G364" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H364" s="31"/>
+      <c r="I364" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J364" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="12.5">
+      <c r="A365" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="B365" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C365" s="19">
+        <v>1</v>
+      </c>
+      <c r="D365" s="19">
+        <v>1</v>
+      </c>
+      <c r="E365" s="32">
+        <v>1</v>
+      </c>
+      <c r="F365" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G365" s="31"/>
+      <c r="H365" s="31"/>
+      <c r="I365" s="31"/>
+      <c r="J365" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K363" s="36"/>
-    </row>
-    <row r="364" spans="1:12" ht="12.5" hidden="1">
-      <c r="A364" s="46" t="s">
+    </row>
+    <row r="366" spans="1:12" ht="12.5">
+      <c r="A366" s="46" t="s">
         <v>618</v>
-      </c>
-      <c r="E364" s="32">
-        <v>1</v>
-      </c>
-      <c r="F364" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G364" s="31"/>
-      <c r="H364" s="31"/>
-      <c r="I364" s="31"/>
-      <c r="J364" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="K364" s="36"/>
-    </row>
-    <row r="365" spans="1:12" ht="12.5">
-      <c r="A365" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="E365" s="31"/>
-      <c r="F365" s="31"/>
-      <c r="G365" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H365" s="31"/>
-      <c r="I365" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J365" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" ht="12.5" hidden="1">
-      <c r="A366" s="46" t="s">
-        <v>619</v>
       </c>
       <c r="B366" s="48" t="s">
         <v>194</v>
@@ -79213,19 +79218,11 @@
       <c r="J366" s="19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" ht="12.5" hidden="1">
+      <c r="K366" s="36"/>
+    </row>
+    <row r="367" spans="1:12" ht="12.5">
       <c r="A367" s="46" t="s">
-        <v>620</v>
-      </c>
-      <c r="B367" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C367" s="19">
-        <v>1</v>
-      </c>
-      <c r="D367" s="19">
-        <v>1</v>
+        <v>619</v>
       </c>
       <c r="E367" s="32">
         <v>1</v>
@@ -79241,9 +79238,15 @@
       </c>
       <c r="K367" s="36"/>
     </row>
-    <row r="368" spans="1:12" ht="12.5" hidden="1">
-      <c r="A368" s="46" t="s">
-        <v>621</v>
+    <row r="368" spans="1:12" ht="12.5">
+      <c r="A368" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="B368" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D368" s="19">
+        <v>1</v>
       </c>
       <c r="E368" s="32">
         <v>1</v>
@@ -79255,19 +79258,17 @@
       <c r="H368" s="31"/>
       <c r="I368" s="31"/>
       <c r="J368" s="19" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="K368" s="36"/>
     </row>
-    <row r="369" spans="1:12" ht="12.5" hidden="1">
-      <c r="A369" s="68" t="s">
-        <v>622</v>
-      </c>
-      <c r="B369" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D369" s="19">
-        <v>1</v>
+    <row r="369" spans="1:12" ht="12.5">
+      <c r="A369" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B369" s="53"/>
+      <c r="C369" s="19">
+        <v>3</v>
       </c>
       <c r="E369" s="32">
         <v>1</v>
@@ -79279,20 +79280,16 @@
       <c r="H369" s="31"/>
       <c r="I369" s="31"/>
       <c r="J369" s="19" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K369" s="36"/>
     </row>
-    <row r="370" spans="1:12" ht="12.5" hidden="1">
-      <c r="A370" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="B370" s="53"/>
-      <c r="C370" s="19">
+    <row r="370" spans="1:12" ht="12.5">
+      <c r="A370" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="E370" s="32">
         <v>3</v>
-      </c>
-      <c r="E370" s="32">
-        <v>1</v>
       </c>
       <c r="F370" s="32" t="s">
         <v>32</v>
@@ -79305,12 +79302,12 @@
       </c>
       <c r="K370" s="36"/>
     </row>
-    <row r="371" spans="1:12" ht="12.5" hidden="1">
-      <c r="A371" s="46" t="s">
-        <v>623</v>
+    <row r="371" spans="1:12" ht="12.5">
+      <c r="A371" s="59" t="s">
+        <v>622</v>
       </c>
       <c r="E371" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F371" s="32" t="s">
         <v>32</v>
@@ -79323,9 +79320,9 @@
       </c>
       <c r="K371" s="36"/>
     </row>
-    <row r="372" spans="1:12" ht="12.5" hidden="1">
-      <c r="A372" s="59" t="s">
-        <v>624</v>
+    <row r="372" spans="1:12" ht="12.5">
+      <c r="A372" s="19" t="s">
+        <v>623</v>
       </c>
       <c r="E372" s="32">
         <v>1</v>
@@ -79337,28 +79334,31 @@
       <c r="H372" s="31"/>
       <c r="I372" s="31"/>
       <c r="J372" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K372" s="36"/>
-    </row>
-    <row r="373" spans="1:12" ht="12.5" hidden="1">
-      <c r="A373" s="19" t="s">
-        <v>625</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="12.5">
+      <c r="A373" s="81" t="s">
+        <v>624</v>
+      </c>
+      <c r="C373" s="19">
+        <v>1</v>
       </c>
       <c r="E373" s="32">
         <v>1</v>
       </c>
-      <c r="F373" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="F373" s="31"/>
       <c r="G373" s="31"/>
       <c r="H373" s="31"/>
       <c r="I373" s="31"/>
       <c r="J373" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" ht="12.5" hidden="1">
+        <v>258</v>
+      </c>
+      <c r="L373" s="55" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="12.5">
       <c r="A374" s="81" t="s">
         <v>626</v>
       </c>
@@ -79375,13 +79375,13 @@
       <c r="J374" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="L374" s="55" t="s">
+      <c r="K374" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="12.5">
+      <c r="A375" s="81" t="s">
         <v>627</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" ht="12.5" hidden="1">
-      <c r="A375" s="81" t="s">
-        <v>628</v>
       </c>
       <c r="C375" s="19">
         <v>1</v>
@@ -79400,52 +79400,40 @@
         <v>198</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="12.5" hidden="1">
-      <c r="A376" s="81" t="s">
-        <v>629</v>
-      </c>
-      <c r="C376" s="19">
-        <v>1</v>
+    <row r="376" spans="1:12" ht="12.5">
+      <c r="A376" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="B376" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D376" s="19">
+        <v>3</v>
       </c>
       <c r="E376" s="32">
-        <v>1</v>
-      </c>
-      <c r="F376" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="F376" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G376" s="31"/>
       <c r="H376" s="31"/>
       <c r="I376" s="31"/>
       <c r="J376" s="19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K376" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" ht="12.5" hidden="1">
-      <c r="A377" s="46" t="s">
-        <v>630</v>
-      </c>
-      <c r="B377" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D377" s="19">
-        <v>3</v>
-      </c>
-      <c r="E377" s="32">
-        <v>3</v>
-      </c>
-      <c r="F377" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="12.5">
+      <c r="A377" s="36"/>
+      <c r="E377" s="31"/>
+      <c r="F377" s="31"/>
       <c r="G377" s="31"/>
       <c r="H377" s="31"/>
       <c r="I377" s="31"/>
-      <c r="J377" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K377" s="19" t="s">
-        <v>195</v>
-      </c>
+      <c r="J377" s="36"/>
     </row>
     <row r="378" spans="1:12" ht="12.5">
       <c r="A378" s="36"/>
@@ -84802,96 +84790,83 @@
       <c r="I972" s="31"/>
       <c r="J972" s="36"/>
     </row>
-    <row r="973" spans="1:10" ht="12.5">
-      <c r="A973" s="36"/>
-      <c r="E973" s="31"/>
-      <c r="F973" s="31"/>
-      <c r="G973" s="31"/>
-      <c r="H973" s="31"/>
-      <c r="I973" s="31"/>
-      <c r="J973" s="36"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O377" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="E1:F973">
+  <autoFilter ref="A1:O376" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <conditionalFormatting sqref="E1:F972">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G973">
+  <conditionalFormatting sqref="G1:G972">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H973">
+  <conditionalFormatting sqref="H1:H972">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I973">
+  <conditionalFormatting sqref="I1:I972">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="K1 K3 K7:K8 K13:K18 K20:K27 K31:K33 K36:K38 K40:K42 K47:K49 K52:K54 K56 K58:K60 K62:K63 K68:K81 K83 K85:K90 K93 K95:K98 K100:K102 K108:K109 K112 A116 K117:K118 K121 K123 K125:K127 K130:K134 K141:K142 K144:K146 K149 K151:K159 K162 K164:K167 K169 K173 K175:K176 K179:K181 K184 K190:K192 K194:K198 K200 K203 K205:K206 K208:K209 K211:K214 K216 K218:K221 K224 K226 K228:K229 K232:K233 K237 K239 K242 K244 K251 K253:K254 K256:K257 K259:K261 K263:K264 K267:K268 K272 K274:K278 K280:K286 K288 K291:K292 K294 K297:K298 K300 K302 K307:K308 K310:K312 K318:K320 K322 K324:K325 K331:K334 K336:K338 K340 K342:K344 K346:K351 K353 K355 K357:K361 K363:K364 K367:K372 K375:K377" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="K1 K3 K7:K8 K13:K18 K20:K27 K31:K33 K36:K38 K40:K42 K47:K49 K52:K54 K56 K58:K60 K62:K63 K68:K81 K83 K85:K90 K93 K95:K98 K100:K102 K108:K109 K112 A116 K117:K118 K121 K122 K124:K126 K129:K133 K140:K141 K143:K145 K148 K150:K158 K161 K163:K166 K168 K172 K174:K175 K178:K180 K183 K189:K191 K193:K197 K199 K202 K204:K205 K207:K208 K210:K213 K215 K217:K220 K223 K225 K227:K228 K231:K232 K236 K238 K241 K243 K250 K252:K253 K255:K256 K258:K260 K262:K263 K266:K267 K271 K273:K277 K279:K285 K287 K290:K291 K293 K296:K297 K299 K301 K306:K307 K309:K311 K317:K319 K321 K323:K324 K330:K333 K335:K337 K339 K341:K343 K345:K350 K352 K354 K356:K360 K362:K363 K366:K371 K374:K376" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Co-op,Light Strategy,Strategy,Trivia,Classics,Children,Party,Word,Dexterity,Abstract,1v1,Modern Classic,Quickies"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J1:J973" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J1:J972" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Co-op,Light Strategy,Strategy,Trivia,Classics,Children,Party,Word,Dexterity,Abstract,1v1,Modern Classic,Quickies,Expansion"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L374" r:id="rId3" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="L361" r:id="rId4" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="L359" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="L353" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="L345" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="L343" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="L341" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="L338" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="L330" r:id="rId11" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="L329" r:id="rId12" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="L328" r:id="rId13" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="L327" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="L305" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="L297" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="L292" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="L284" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="L283" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="L276" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="L260" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="L244" r:id="rId22" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="L233" r:id="rId23" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="L228" r:id="rId24" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="L221" r:id="rId25" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="L220" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="L205" r:id="rId27" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="L196" r:id="rId28" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="L195" r:id="rId29" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="L190" r:id="rId30" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="L187" r:id="rId31" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="L183" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="L182" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="L181" r:id="rId34" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="L175" r:id="rId35" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="L172" r:id="rId36" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="L167" r:id="rId37" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="L164" r:id="rId38" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="L162" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="L159" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="L153" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="L147" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="L146" r:id="rId43" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="L144" r:id="rId44" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="L141" r:id="rId45" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="L132" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="L130" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="L129" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="L373" r:id="rId3" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="L360" r:id="rId4" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="L358" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="L352" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="L344" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="L342" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="L340" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="L337" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="L329" r:id="rId11" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="L328" r:id="rId12" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="L327" r:id="rId13" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="L326" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="L304" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="L296" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="L291" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="L283" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="L282" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="L275" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="L259" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="L243" r:id="rId22" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="L232" r:id="rId23" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="L227" r:id="rId24" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="L220" r:id="rId25" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="L219" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="L204" r:id="rId27" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="L195" r:id="rId28" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="L194" r:id="rId29" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="L189" r:id="rId30" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="L186" r:id="rId31" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="L182" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="L181" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="L180" r:id="rId34" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="L174" r:id="rId35" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="L171" r:id="rId36" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="L166" r:id="rId37" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="L163" r:id="rId38" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="L161" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="L158" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="L152" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="L146" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="L145" r:id="rId43" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="L143" r:id="rId44" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="L140" r:id="rId45" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="L131" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="L129" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="L128" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
     <hyperlink ref="L117" r:id="rId49" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
     <hyperlink ref="L116" r:id="rId50" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
     <hyperlink ref="L114" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
